--- a/AllData.xlsx
+++ b/AllData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathh\PycharmProjects\CT5018_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB1312-0675-4748-B279-FDB7C81BDDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B35810-5AC3-4BA7-9A72-24F5AB432BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2580" windowWidth="22470" windowHeight="11430" xr2:uid="{43A7D6BA-7E78-4EB4-94AB-63881184F48F}"/>
+    <workbookView minimized="1" xWindow="1695" yWindow="2025" windowWidth="21375" windowHeight="14910" xr2:uid="{43A7D6BA-7E78-4EB4-94AB-63881184F48F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B5CF35-991C-473A-8246-9D66D5A4B7F3}">
   <dimension ref="A1:BZ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU74" workbookViewId="0">
-      <selection activeCell="BE85" sqref="BE85"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BQ8" sqref="BQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,39 +1372,39 @@
         <v>3.2219738617370464</v>
       </c>
       <c r="BI4" s="3">
-        <f t="shared" ref="BI4:BI67" si="5">SUM(AK4:AV4)</f>
+        <f>SUM(AK4:AV4)</f>
         <v>36.918450499070325</v>
       </c>
       <c r="BJ4" s="3">
-        <f t="shared" ref="BJ4:BJ67" si="6">SUM(AW4:BH4)</f>
+        <f>SUM(AW4:BH4)</f>
         <v>36.381454855447487</v>
       </c>
       <c r="BK4" s="3">
-        <f t="shared" ref="BK4:BK67" si="7">SUM(BI4:BJ4)</f>
+        <f t="shared" ref="BK4:BK67" si="5">SUM(BI4:BJ4)</f>
         <v>73.299905354517819</v>
       </c>
       <c r="BM4">
-        <f t="shared" ref="BM4:BM67" si="8">AVERAGE(AK4:AV4)</f>
+        <f>AVERAGE(AK4:AV4)</f>
         <v>3.0765375415891936</v>
       </c>
       <c r="BN4">
-        <f t="shared" ref="BN4:BN67" si="9">AVERAGE(AW4:BH4)</f>
+        <f>AVERAGE(AW4:BH4)</f>
         <v>3.0317879046206238</v>
       </c>
       <c r="BO4">
-        <f t="shared" ref="BO4:BO67" si="10">AVERAGE(AK4:BH4)</f>
+        <f>AVERAGE(AK4:BH4)</f>
         <v>3.0541627231049087</v>
       </c>
       <c r="BQ4">
-        <f t="shared" ref="BQ4:BQ67" si="11">MEDIAN(AK4:AV4)</f>
+        <f>MEDIAN(AK4:AV4)</f>
         <v>3.0206004953784813</v>
       </c>
       <c r="BR4">
-        <f t="shared" ref="BR4:BR67" si="12">MEDIAN(AW4:BH4)</f>
+        <f>MEDIAN(AW4:BH4)</f>
         <v>3.087724950831336</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS4:BS67" si="13">MEDIAN(AK4:BH4)</f>
+        <f>MEDIAN(AK4:BH4)</f>
         <v>3.087724950831336</v>
       </c>
       <c r="BU4" s="3">
@@ -1414,14 +1414,14 @@
         <v>519016</v>
       </c>
       <c r="BX4" s="24">
-        <f t="shared" ref="BX4:BX23" si="14">BW4/B4*100000</f>
+        <f>BW4/B4*100000</f>
         <v>69677.332742638115</v>
       </c>
       <c r="BY4">
         <v>524562</v>
       </c>
       <c r="BZ4" s="24">
-        <f t="shared" ref="BZ4:BZ23" si="15">BY4/B4*100000</f>
+        <f>BY4/B4*100000</f>
         <v>70421.877202521195</v>
       </c>
     </row>
@@ -1604,39 +1604,39 @@
         <v>7.4375895777258272</v>
       </c>
       <c r="BI5" s="3">
+        <f>SUM(AK5:AV5)</f>
+        <v>49.248903960616957</v>
+      </c>
+      <c r="BJ5" s="3">
+        <f>SUM(AW5:BH5)</f>
+        <v>43.017409990089917</v>
+      </c>
+      <c r="BK5" s="3">
         <f t="shared" si="5"/>
-        <v>49.248903960616957</v>
-      </c>
-      <c r="BJ5" s="3">
-        <f t="shared" si="6"/>
-        <v>43.017409990089917</v>
-      </c>
-      <c r="BK5" s="3">
-        <f t="shared" si="7"/>
         <v>92.266313950706873</v>
       </c>
       <c r="BM5">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK5:AV5)</f>
         <v>4.1040753300514128</v>
       </c>
       <c r="BN5">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW5:BH5)</f>
         <v>3.5847841658408264</v>
       </c>
       <c r="BO5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK5:BH5)</f>
         <v>3.8444297479461196</v>
       </c>
       <c r="BQ5">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK5:AV5)</f>
         <v>4.0203186906626085</v>
       </c>
       <c r="BR5">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW5:BH5)</f>
         <v>3.8193027561294786</v>
       </c>
       <c r="BS5">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK5:BH5)</f>
         <v>3.9198107233960435</v>
       </c>
       <c r="BU5" s="3">
@@ -1646,14 +1646,14 @@
         <v>399518</v>
       </c>
       <c r="BX5" s="24">
-        <f t="shared" si="14"/>
+        <f>BW5/B5*100000</f>
         <v>80309.484132807207</v>
       </c>
       <c r="BY5">
         <v>409848</v>
       </c>
       <c r="BZ5" s="24">
-        <f t="shared" si="15"/>
+        <f>BY5/B5*100000</f>
         <v>82385.978736534453</v>
       </c>
     </row>
@@ -1836,39 +1836,39 @@
         <v>5.1596806501656252</v>
       </c>
       <c r="BI6" s="3">
+        <f>SUM(AK6:AV6)</f>
+        <v>59.737635971917584</v>
+      </c>
+      <c r="BJ6" s="3">
+        <f>SUM(AW6:BH6)</f>
+        <v>56.641827581818205</v>
+      </c>
+      <c r="BK6" s="3">
         <f t="shared" si="5"/>
-        <v>59.737635971917584</v>
-      </c>
-      <c r="BJ6" s="3">
-        <f t="shared" si="6"/>
-        <v>56.641827581818205</v>
-      </c>
-      <c r="BK6" s="3">
-        <f t="shared" si="7"/>
         <v>116.37946355373579</v>
       </c>
       <c r="BM6">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK6:AV6)</f>
         <v>4.9781363309931317</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW6:BH6)</f>
         <v>4.7201522984848507</v>
       </c>
       <c r="BO6">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK6:BH6)</f>
         <v>4.8491443147389903</v>
       </c>
       <c r="BQ6">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK6:AV6)</f>
         <v>4.8730317251564248</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW6:BH6)</f>
         <v>5.1596806501656252</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK6:BH6)</f>
         <v>5.1023508651637854</v>
       </c>
       <c r="BU6" s="3">
@@ -1878,14 +1878,14 @@
         <v>623047</v>
       </c>
       <c r="BX6" s="24">
-        <f t="shared" si="14"/>
+        <f>BW6/B6*100000</f>
         <v>71438.301112083165</v>
       </c>
       <c r="BY6">
         <v>624264</v>
       </c>
       <c r="BZ6" s="24">
-        <f t="shared" si="15"/>
+        <f>BY6/B6*100000</f>
         <v>71577.841808777652</v>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
         <v>5201.8522720358214</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="4"/>
+        <f>D7/B7*100000</f>
         <v>4992.4679653952908</v>
       </c>
       <c r="AK7" cm="1">
@@ -2068,39 +2068,39 @@
         <v>4.4356262677787575</v>
       </c>
       <c r="BI7" s="3">
+        <f>SUM(AK7:AV7)</f>
+        <v>60.733959666509143</v>
+      </c>
+      <c r="BJ7" s="3">
+        <f>SUM(AW7:BH7)</f>
+        <v>49.70176100049531</v>
+      </c>
+      <c r="BK7" s="3">
         <f t="shared" si="5"/>
-        <v>60.733959666509143</v>
-      </c>
-      <c r="BJ7" s="3">
-        <f t="shared" si="6"/>
-        <v>49.70176100049531</v>
-      </c>
-      <c r="BK7" s="3">
-        <f t="shared" si="7"/>
         <v>110.43572066700446</v>
       </c>
       <c r="BM7">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK7:AV7)</f>
         <v>5.0611633055424283</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW7:BH7)</f>
         <v>4.1418134167079428</v>
       </c>
       <c r="BO7">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK7:BH7)</f>
         <v>4.6014883611251856</v>
       </c>
       <c r="BQ7">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK7:AV7)</f>
         <v>4.9474292986763064</v>
       </c>
       <c r="BR7">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW7:BH7)</f>
         <v>4.5777937763614105</v>
       </c>
       <c r="BS7">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK7:BH7)</f>
         <v>4.8052617900936543</v>
       </c>
       <c r="BU7" s="3">
@@ -2110,14 +2110,14 @@
         <v>1248835</v>
       </c>
       <c r="BX7" s="24">
-        <f t="shared" si="14"/>
+        <f>BW7/B7*100000</f>
         <v>71017.504232326741</v>
       </c>
       <c r="BY7">
         <v>1267220</v>
       </c>
       <c r="BZ7" s="24">
-        <f t="shared" si="15"/>
+        <f>BY7/B7*100000</f>
         <v>72063.004090443559</v>
       </c>
     </row>
@@ -2300,39 +2300,39 @@
         <v>3.5406627412519072</v>
       </c>
       <c r="BI8" s="3">
+        <f>SUM(AK8:AV8)</f>
+        <v>58.420935230656468</v>
+      </c>
+      <c r="BJ8" s="3">
+        <f>SUM(AW8:BH8)</f>
+        <v>48.861145829276325</v>
+      </c>
+      <c r="BK8" s="3">
         <f t="shared" si="5"/>
-        <v>58.420935230656468</v>
-      </c>
-      <c r="BJ8" s="3">
-        <f t="shared" si="6"/>
-        <v>48.861145829276325</v>
-      </c>
-      <c r="BK8" s="3">
-        <f t="shared" si="7"/>
         <v>107.28208105993279</v>
       </c>
       <c r="BM8">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK8:AV8)</f>
         <v>4.8684112692213724</v>
       </c>
       <c r="BN8">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW8:BH8)</f>
         <v>4.0717621524396934</v>
       </c>
       <c r="BO8">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK8:BH8)</f>
         <v>4.4700867108305324</v>
       </c>
       <c r="BQ8">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK8:AV8)</f>
         <v>4.9569278377526711</v>
       </c>
       <c r="BR8">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW8:BH8)</f>
         <v>4.5143449950961818</v>
       </c>
       <c r="BS8">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK8:BH8)</f>
         <v>4.6028615636274797</v>
       </c>
       <c r="BU8" s="3">
@@ -2342,14 +2342,14 @@
         <v>442355</v>
       </c>
       <c r="BX8" s="24">
-        <f t="shared" si="14"/>
+        <f>BW8/B8*100000</f>
         <v>78311.493345324372</v>
       </c>
       <c r="BY8">
         <v>443995</v>
       </c>
       <c r="BZ8" s="24">
-        <f t="shared" si="15"/>
+        <f>BY8/B8*100000</f>
         <v>78601.827690107035</v>
       </c>
     </row>
@@ -2532,39 +2532,39 @@
         <v>6.124026853857754</v>
       </c>
       <c r="BI9" s="3">
+        <f>SUM(AK9:AV9)</f>
+        <v>90.548111339182498</v>
+      </c>
+      <c r="BJ9" s="3">
+        <f>SUM(AW9:BH9)</f>
+        <v>72.066673155218936</v>
+      </c>
+      <c r="BK9" s="3">
         <f t="shared" si="5"/>
-        <v>90.548111339182498</v>
-      </c>
-      <c r="BJ9" s="3">
-        <f t="shared" si="6"/>
-        <v>72.066673155218936</v>
-      </c>
-      <c r="BK9" s="3">
-        <f t="shared" si="7"/>
         <v>162.61478449440142</v>
       </c>
       <c r="BM9">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK9:AV9)</f>
         <v>7.5456759449318751</v>
       </c>
       <c r="BN9">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW9:BH9)</f>
         <v>6.0055560962682444</v>
       </c>
       <c r="BO9">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK9:BH9)</f>
         <v>6.7756160206000606</v>
       </c>
       <c r="BQ9">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK9:AV9)</f>
         <v>7.053566644175449</v>
       </c>
       <c r="BR9">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW9:BH9)</f>
         <v>6.069348042662595</v>
       </c>
       <c r="BS9">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK9:BH9)</f>
         <v>6.9442090217851309</v>
       </c>
       <c r="BU9" s="3">
@@ -2574,14 +2574,14 @@
         <v>661181</v>
       </c>
       <c r="BX9" s="24">
-        <f t="shared" si="14"/>
+        <f>BW9/B9*100000</f>
         <v>72305.18212965221</v>
       </c>
       <c r="BY9">
         <v>687784</v>
       </c>
       <c r="BZ9" s="24">
-        <f t="shared" si="15"/>
+        <f>BY9/B9*100000</f>
         <v>75214.422958101815</v>
       </c>
     </row>
@@ -2764,39 +2764,39 @@
         <v>1.3203489242090376</v>
       </c>
       <c r="BI10" s="3">
+        <f>SUM(AK10:AV10)</f>
+        <v>22.445931711553637</v>
+      </c>
+      <c r="BJ10" s="3">
+        <f>SUM(AW10:BH10)</f>
+        <v>16.724419706647808</v>
+      </c>
+      <c r="BK10" s="3">
         <f t="shared" si="5"/>
-        <v>22.445931711553637</v>
-      </c>
-      <c r="BJ10" s="3">
-        <f t="shared" si="6"/>
-        <v>16.724419706647808</v>
-      </c>
-      <c r="BK10" s="3">
-        <f t="shared" si="7"/>
         <v>39.170351418201449</v>
       </c>
       <c r="BM10">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK10:AV10)</f>
         <v>1.8704943092961364</v>
       </c>
       <c r="BN10">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW10:BH10)</f>
         <v>1.3937016422206507</v>
       </c>
       <c r="BO10">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK10:BH10)</f>
         <v>1.6320979757583938</v>
       </c>
       <c r="BQ10">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK10:AV10)</f>
         <v>1.83381795029033</v>
       </c>
       <c r="BR10">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW10:BH10)</f>
         <v>1.3570252832148442</v>
       </c>
       <c r="BS10">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK10:BH10)</f>
         <v>1.5037307192380707</v>
       </c>
       <c r="BU10" s="3">
@@ -2806,14 +2806,14 @@
         <v>1017449</v>
       </c>
       <c r="BX10" s="24">
-        <f t="shared" si="14"/>
+        <f>BW10/B10*100000</f>
         <v>74632.649588197848</v>
       </c>
       <c r="BY10">
         <v>1039548</v>
       </c>
       <c r="BZ10" s="24">
-        <f t="shared" si="15"/>
+        <f>BY10/B10*100000</f>
         <v>76253.671303536481</v>
       </c>
     </row>
@@ -2996,39 +2996,39 @@
         <v>0.98496407567389443</v>
       </c>
       <c r="BI11" s="3">
+        <f>SUM(AK11:AV11)</f>
+        <v>22.027378419616188</v>
+      </c>
+      <c r="BJ11" s="3">
+        <f>SUM(AW11:BH11)</f>
+        <v>21.042414343942291</v>
+      </c>
+      <c r="BK11" s="3">
         <f t="shared" si="5"/>
-        <v>22.027378419616188</v>
-      </c>
-      <c r="BJ11" s="3">
-        <f t="shared" si="6"/>
-        <v>21.042414343942291</v>
-      </c>
-      <c r="BK11" s="3">
-        <f t="shared" si="7"/>
         <v>43.069792763558482</v>
       </c>
       <c r="BM11">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK11:AV11)</f>
         <v>1.8356148683013489</v>
       </c>
       <c r="BN11">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW11:BH11)</f>
         <v>1.7535345286618575</v>
       </c>
       <c r="BO11">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK11:BH11)</f>
         <v>1.7945746984816031</v>
       </c>
       <c r="BQ11">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK11:AV11)</f>
         <v>2.0146992456966024</v>
       </c>
       <c r="BR11">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW11:BH11)</f>
         <v>1.9251570569989758</v>
       </c>
       <c r="BS11">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK11:BH11)</f>
         <v>1.9251570569989758</v>
       </c>
       <c r="BU11" s="3">
@@ -3038,14 +3038,14 @@
         <v>852225</v>
       </c>
       <c r="BX11" s="24">
-        <f t="shared" si="14"/>
+        <f>BW11/B11*100000</f>
         <v>76310.091762834971</v>
       </c>
       <c r="BY11">
         <v>868678</v>
       </c>
       <c r="BZ11" s="24">
-        <f t="shared" si="15"/>
+        <f>BY11/B11*100000</f>
         <v>77783.329393477034</v>
       </c>
     </row>
@@ -3228,39 +3228,39 @@
         <v>4.5133584125615789</v>
       </c>
       <c r="BI12" s="3">
+        <f>SUM(AK12:AV12)</f>
+        <v>49.421274617549294</v>
+      </c>
+      <c r="BJ12" s="3">
+        <f>SUM(AW12:BH12)</f>
+        <v>42.876904919334997</v>
+      </c>
+      <c r="BK12" s="3">
         <f t="shared" si="5"/>
-        <v>49.421274617549294</v>
-      </c>
-      <c r="BJ12" s="3">
-        <f t="shared" si="6"/>
-        <v>42.876904919334997</v>
-      </c>
-      <c r="BK12" s="3">
-        <f t="shared" si="7"/>
         <v>92.298179536884291</v>
       </c>
       <c r="BM12">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK12:AV12)</f>
         <v>4.1184395514624415</v>
       </c>
       <c r="BN12">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW12:BH12)</f>
         <v>3.5730754099445829</v>
       </c>
       <c r="BO12">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK12:BH12)</f>
         <v>3.8457574807035115</v>
       </c>
       <c r="BQ12">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK12:AV12)</f>
         <v>4.2876904919335006</v>
       </c>
       <c r="BR12">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW12:BH12)</f>
         <v>4.0620225713054214</v>
       </c>
       <c r="BS12">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK12:BH12)</f>
         <v>4.2876904919335006</v>
       </c>
       <c r="BU12" s="3">
@@ -3270,14 +3270,14 @@
         <v>346350</v>
       </c>
       <c r="BX12" s="24">
-        <f t="shared" si="14"/>
+        <f>BW12/B12*100000</f>
         <v>78160.084309535145</v>
       </c>
       <c r="BY12">
         <v>338563</v>
       </c>
       <c r="BZ12" s="24">
-        <f t="shared" si="15"/>
+        <f>BY12/B12*100000</f>
         <v>76402.808211604293</v>
       </c>
     </row>
@@ -3460,39 +3460,39 @@
         <v>2.3394891140647163</v>
       </c>
       <c r="BI13" s="3">
+        <f>SUM(AK13:AV13)</f>
+        <v>45.620037724261962</v>
+      </c>
+      <c r="BJ13" s="3">
+        <f>SUM(AW13:BH13)</f>
+        <v>28.951177786550861</v>
+      </c>
+      <c r="BK13" s="3">
         <f t="shared" si="5"/>
-        <v>45.620037724261962</v>
-      </c>
-      <c r="BJ13" s="3">
-        <f t="shared" si="6"/>
-        <v>28.951177786550861</v>
-      </c>
-      <c r="BK13" s="3">
-        <f t="shared" si="7"/>
         <v>74.57121551081282</v>
       </c>
       <c r="BM13">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK13:AV13)</f>
         <v>3.8016698103551634</v>
       </c>
       <c r="BN13">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW13:BH13)</f>
         <v>2.4125981488792383</v>
       </c>
       <c r="BO13">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK13:BH13)</f>
         <v>3.1071339796172008</v>
       </c>
       <c r="BQ13">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK13:AV13)</f>
         <v>3.2167975318389845</v>
       </c>
       <c r="BR13">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW13:BH13)</f>
         <v>2.6319252533228057</v>
       </c>
       <c r="BS13">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK13:BH13)</f>
         <v>2.7781433229518502</v>
       </c>
       <c r="BU13" s="3">
@@ -3502,14 +3502,14 @@
         <v>279239</v>
       </c>
       <c r="BX13" s="24">
-        <f t="shared" si="14"/>
+        <f>BW13/B13*100000</f>
         <v>81659.575090289654</v>
       </c>
       <c r="BY13">
         <v>274681</v>
       </c>
       <c r="BZ13" s="24">
-        <f t="shared" si="15"/>
+        <f>BY13/B13*100000</f>
         <v>80326.651167551288</v>
       </c>
     </row>
@@ -3692,39 +3692,39 @@
         <v>3.4401024586581461</v>
       </c>
       <c r="BI14" s="3">
+        <f>SUM(AK14:AV14)</f>
+        <v>54.928849093984162</v>
+      </c>
+      <c r="BJ14" s="3">
+        <f>SUM(AW14:BH14)</f>
+        <v>46.864346608933097</v>
+      </c>
+      <c r="BK14" s="3">
         <f t="shared" si="5"/>
-        <v>54.928849093984162</v>
-      </c>
-      <c r="BJ14" s="3">
-        <f t="shared" si="6"/>
-        <v>46.864346608933097</v>
-      </c>
-      <c r="BK14" s="3">
-        <f t="shared" si="7"/>
         <v>101.79319570291726</v>
       </c>
       <c r="BM14">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK14:AV14)</f>
         <v>4.5774040911653469</v>
       </c>
       <c r="BN14">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW14:BH14)</f>
         <v>3.9053622174110916</v>
       </c>
       <c r="BO14">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK14:BH14)</f>
         <v>4.2413831542882203</v>
       </c>
       <c r="BQ14">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK14:AV14)</f>
         <v>4.7935853932121706</v>
       </c>
       <c r="BR14">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW14:BH14)</f>
         <v>4.2014366093447846</v>
       </c>
       <c r="BS14">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK14:BH14)</f>
         <v>4.483412220710207</v>
       </c>
       <c r="BU14" s="3">
@@ -3734,14 +3734,14 @@
         <v>1163874</v>
       </c>
       <c r="BX14" s="24">
-        <f t="shared" si="14"/>
+        <f>BW14/B14*100000</f>
         <v>65636.816540463784</v>
       </c>
       <c r="BY14">
         <v>1171370</v>
       </c>
       <c r="BZ14" s="24">
-        <f t="shared" si="15"/>
+        <f>BY14/B14*100000</f>
         <v>66059.554377022825</v>
       </c>
     </row>
@@ -3924,39 +3924,39 @@
         <v>2.8307270859490927</v>
       </c>
       <c r="BI15" s="3">
+        <f>SUM(AK15:AV15)</f>
+        <v>41.365140965643192</v>
+      </c>
+      <c r="BJ15" s="3">
+        <f>SUM(AW15:BH15)</f>
+        <v>31.22931172240612</v>
+      </c>
+      <c r="BK15" s="3">
         <f t="shared" si="5"/>
-        <v>41.365140965643192</v>
-      </c>
-      <c r="BJ15" s="3">
-        <f t="shared" si="6"/>
-        <v>31.22931172240612</v>
-      </c>
-      <c r="BK15" s="3">
-        <f t="shared" si="7"/>
         <v>72.594452688049316</v>
       </c>
       <c r="BM15">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK15:AV15)</f>
         <v>3.447095080470266</v>
       </c>
       <c r="BN15">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW15:BH15)</f>
         <v>2.6024426435338435</v>
       </c>
       <c r="BO15">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK15:BH15)</f>
         <v>3.0247688620020541</v>
       </c>
       <c r="BQ15">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK15:AV15)</f>
         <v>3.5155804131948409</v>
       </c>
       <c r="BR15">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW15:BH15)</f>
         <v>2.7394133089829928</v>
       </c>
       <c r="BS15">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK15:BH15)</f>
         <v>3.3786097477456911</v>
       </c>
       <c r="BU15" s="3">
@@ -3966,14 +3966,14 @@
         <v>859302</v>
       </c>
       <c r="BX15" s="24">
-        <f t="shared" si="14"/>
+        <f>BW15/B15*100000</f>
         <v>78466.111174523452</v>
       </c>
       <c r="BY15">
         <v>872190</v>
       </c>
       <c r="BZ15" s="24">
-        <f t="shared" si="15"/>
+        <f>BY15/B15*100000</f>
         <v>79642.963132062549</v>
       </c>
     </row>
@@ -4156,39 +4156,39 @@
         <v>0.68470921084524616</v>
       </c>
       <c r="BI16" s="3">
+        <f>SUM(AK16:AV16)</f>
+        <v>41.493378177221913</v>
+      </c>
+      <c r="BJ16" s="3">
+        <f>SUM(AW16:BH16)</f>
+        <v>30.401088961528927</v>
+      </c>
+      <c r="BK16" s="3">
         <f t="shared" si="5"/>
-        <v>41.493378177221913</v>
-      </c>
-      <c r="BJ16" s="3">
-        <f t="shared" si="6"/>
-        <v>30.401088961528927</v>
-      </c>
-      <c r="BK16" s="3">
-        <f t="shared" si="7"/>
         <v>71.894467138750841</v>
       </c>
       <c r="BM16">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK16:AV16)</f>
         <v>3.4577815147684929</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW16:BH16)</f>
         <v>2.5334240801274106</v>
       </c>
       <c r="BO16">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK16:BH16)</f>
         <v>2.9956027974479511</v>
       </c>
       <c r="BQ16">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK16:AV16)</f>
         <v>3.6289588174798046</v>
       </c>
       <c r="BR16">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW16:BH16)</f>
         <v>2.875778685550034</v>
       </c>
       <c r="BS16">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK16:BH16)</f>
         <v>2.9442496066345587</v>
       </c>
       <c r="BU16" s="3">
@@ -4198,14 +4198,14 @@
         <v>586693</v>
       </c>
       <c r="BX16" s="24">
-        <f t="shared" si="14"/>
+        <f>BW16/B16*100000</f>
         <v>80342.820207685989</v>
       </c>
       <c r="BY16">
         <v>606519</v>
       </c>
       <c r="BZ16" s="24">
-        <f t="shared" si="15"/>
+        <f>BY16/B16*100000</f>
         <v>83057.829170529556</v>
       </c>
     </row>
@@ -4388,39 +4388,39 @@
         <v>2.262095424233376</v>
       </c>
       <c r="BI17" s="3">
+        <f>SUM(AK17:AV17)</f>
+        <v>38.229412669544054</v>
+      </c>
+      <c r="BJ17" s="3">
+        <f>SUM(AW17:BH17)</f>
+        <v>23.299582869603775</v>
+      </c>
+      <c r="BK17" s="3">
         <f t="shared" si="5"/>
-        <v>38.229412669544054</v>
-      </c>
-      <c r="BJ17" s="3">
-        <f t="shared" si="6"/>
-        <v>23.299582869603775</v>
-      </c>
-      <c r="BK17" s="3">
-        <f t="shared" si="7"/>
         <v>61.528995539147829</v>
       </c>
       <c r="BM17">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK17:AV17)</f>
         <v>3.185784389128671</v>
       </c>
       <c r="BN17">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW17:BH17)</f>
         <v>1.9416319058003146</v>
       </c>
       <c r="BO17">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK17:BH17)</f>
         <v>2.5637081474644927</v>
       </c>
       <c r="BQ17">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK17:AV17)</f>
         <v>3.5062479075617325</v>
       </c>
       <c r="BR17">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW17:BH17)</f>
         <v>2.0358858818100383</v>
       </c>
       <c r="BS17">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK17:BH17)</f>
         <v>2.3752001954450446</v>
       </c>
       <c r="BU17" s="3">
@@ -4430,14 +4430,14 @@
         <v>353328</v>
       </c>
       <c r="BX17" s="24">
-        <f t="shared" si="14"/>
+        <f>BW17/B17*100000</f>
         <v>79926.165205353027</v>
       </c>
       <c r="BY17">
         <v>350639</v>
       </c>
       <c r="BZ17" s="24">
-        <f t="shared" si="15"/>
+        <f>BY17/B17*100000</f>
         <v>79317.887745776665</v>
       </c>
     </row>
@@ -4620,39 +4620,39 @@
         <v>3.4687103437972762</v>
       </c>
       <c r="BI18" s="3">
+        <f>SUM(AK18:AV18)</f>
+        <v>48.046789811607816</v>
+      </c>
+      <c r="BJ18" s="3">
+        <f>SUM(AW18:BH18)</f>
+        <v>42.156850960506496</v>
+      </c>
+      <c r="BK18" s="3">
         <f t="shared" si="5"/>
-        <v>48.046789811607816</v>
-      </c>
-      <c r="BJ18" s="3">
-        <f t="shared" si="6"/>
-        <v>42.156850960506496</v>
-      </c>
-      <c r="BK18" s="3">
-        <f t="shared" si="7"/>
         <v>90.203640772114312</v>
       </c>
       <c r="BM18">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK18:AV18)</f>
         <v>4.0038991509673183</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW18:BH18)</f>
         <v>3.5130709133755413</v>
       </c>
       <c r="BO18">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK18:BH18)</f>
         <v>3.7584850321714289</v>
       </c>
       <c r="BQ18">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK18:AV18)</f>
         <v>3.9752794286587596</v>
       </c>
       <c r="BR18">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW18:BH18)</f>
         <v>3.8035610948074092</v>
       </c>
       <c r="BS18">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK18:BH18)</f>
         <v>3.8894202617330844</v>
       </c>
       <c r="BU18" s="3">
@@ -4662,14 +4662,14 @@
         <v>4289791</v>
       </c>
       <c r="BX18" s="24">
-        <f t="shared" si="14"/>
+        <f>BW18/B18*100000</f>
         <v>73663.576309051787</v>
       </c>
       <c r="BY18">
         <v>4419591</v>
       </c>
       <c r="BZ18" s="24">
-        <f t="shared" si="15"/>
+        <f>BY18/B18*100000</f>
         <v>75892.480282442324</v>
       </c>
     </row>
@@ -4852,39 +4852,39 @@
         <v>1.744747471290516</v>
       </c>
       <c r="BI19" s="3">
+        <f>SUM(AK19:AV19)</f>
+        <v>37.646281976691519</v>
+      </c>
+      <c r="BJ19" s="3">
+        <f>SUM(AW19:BH19)</f>
+        <v>26.976480133030282</v>
+      </c>
+      <c r="BK19" s="3">
         <f t="shared" si="5"/>
-        <v>37.646281976691519</v>
-      </c>
-      <c r="BJ19" s="3">
-        <f t="shared" si="6"/>
-        <v>26.976480133030282</v>
-      </c>
-      <c r="BK19" s="3">
-        <f t="shared" si="7"/>
         <v>64.622762109721805</v>
       </c>
       <c r="BM19">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK19:AV19)</f>
         <v>3.1371901647242932</v>
       </c>
       <c r="BN19">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW19:BH19)</f>
         <v>2.2480400110858567</v>
       </c>
       <c r="BO19">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK19:BH19)</f>
         <v>2.6926150879050752</v>
       </c>
       <c r="BQ19">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK19:AV19)</f>
         <v>2.9526495667993347</v>
       </c>
       <c r="BR19">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW19:BH19)</f>
         <v>2.4829098629903497</v>
       </c>
       <c r="BS19">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK19:BH19)</f>
         <v>2.8184382228539104</v>
       </c>
       <c r="BU19" s="3">
@@ -4894,14 +4894,14 @@
         <v>1197830</v>
       </c>
       <c r="BX19" s="24">
-        <f t="shared" si="14"/>
+        <f>BW19/B19*100000</f>
         <v>80381.187059073782</v>
       </c>
       <c r="BY19">
         <v>1220144</v>
       </c>
       <c r="BZ19" s="24">
-        <f t="shared" si="15"/>
+        <f>BY19/B19*100000</f>
         <v>81878.583023472893</v>
       </c>
     </row>
@@ -5084,39 +5084,39 @@
         <v>3.7069133109490688</v>
       </c>
       <c r="BI20" s="3">
+        <f>SUM(AK20:AV20)</f>
+        <v>35.092112676984513</v>
+      </c>
+      <c r="BJ20" s="3">
+        <f>SUM(AW20:BH20)</f>
+        <v>34.021226609377003</v>
+      </c>
+      <c r="BK20" s="3">
         <f t="shared" si="5"/>
-        <v>35.092112676984513</v>
-      </c>
-      <c r="BJ20" s="3">
-        <f t="shared" si="6"/>
-        <v>34.021226609377003</v>
-      </c>
-      <c r="BK20" s="3">
-        <f t="shared" si="7"/>
         <v>69.113339286361509</v>
       </c>
       <c r="BM20">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK20:AV20)</f>
         <v>2.9243427230820429</v>
       </c>
       <c r="BN20">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW20:BH20)</f>
         <v>2.8351022174480836</v>
       </c>
       <c r="BO20">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK20:BH20)</f>
         <v>2.879722470265063</v>
       </c>
       <c r="BQ20">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK20:AV20)</f>
         <v>2.8831547974048313</v>
       </c>
       <c r="BR20">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW20:BH20)</f>
         <v>3.3774099055313735</v>
       </c>
       <c r="BS20">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK20:BH20)</f>
         <v>2.965530648759255</v>
       </c>
       <c r="BU20" s="3">
@@ -5126,14 +5126,14 @@
         <v>987919</v>
       </c>
       <c r="BX20" s="24">
-        <f t="shared" si="14"/>
+        <f>BW20/B20*100000</f>
         <v>81380.668694210952</v>
       </c>
       <c r="BY20">
         <v>983400</v>
       </c>
       <c r="BZ20" s="24">
-        <f t="shared" si="15"/>
+        <f>BY20/B20*100000</f>
         <v>81008.412221940322</v>
       </c>
     </row>
@@ -5316,39 +5316,39 @@
         <v>3.8973775181137422</v>
       </c>
       <c r="BI21" s="3">
+        <f>SUM(AK21:AV21)</f>
+        <v>50.031450930204322</v>
+      </c>
+      <c r="BJ21" s="3">
+        <f>SUM(AW21:BH21)</f>
+        <v>43.505609504525495</v>
+      </c>
+      <c r="BK21" s="3">
         <f t="shared" si="5"/>
-        <v>50.031450930204322</v>
-      </c>
-      <c r="BJ21" s="3">
-        <f t="shared" si="6"/>
-        <v>43.505609504525495</v>
-      </c>
-      <c r="BK21" s="3">
-        <f t="shared" si="7"/>
         <v>93.537060434729824</v>
       </c>
       <c r="BM21">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK21:AV21)</f>
         <v>4.1692875775170268</v>
       </c>
       <c r="BN21">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW21:BH21)</f>
         <v>3.6254674587104581</v>
       </c>
       <c r="BO21">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK21:BH21)</f>
         <v>3.8973775181137427</v>
       </c>
       <c r="BQ21">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK21:AV21)</f>
         <v>4.5771526666219522</v>
       </c>
       <c r="BR21">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW21:BH21)</f>
         <v>3.7161041451782193</v>
       </c>
       <c r="BS21">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK21:BH21)</f>
         <v>3.8973775181137422</v>
       </c>
       <c r="BU21" s="3">
@@ -5358,14 +5358,14 @@
         <v>828102</v>
       </c>
       <c r="BX21" s="24">
-        <f t="shared" si="14"/>
+        <f>BW21/B21*100000</f>
         <v>75056.421337326188</v>
       </c>
       <c r="BY21">
         <v>850890</v>
       </c>
       <c r="BZ21" s="24">
-        <f t="shared" si="15"/>
+        <f>BY21/B21*100000</f>
         <v>77121.850148553523</v>
       </c>
     </row>
@@ -5548,39 +5548,39 @@
         <v>3.9632213062777426</v>
       </c>
       <c r="BI22" s="3">
+        <f>SUM(AK22:AV22)</f>
+        <v>41.217501585288524</v>
+      </c>
+      <c r="BJ22" s="3">
+        <f>SUM(AW22:BH22)</f>
+        <v>38.311139294018183</v>
+      </c>
+      <c r="BK22" s="3">
         <f t="shared" si="5"/>
-        <v>41.217501585288524</v>
-      </c>
-      <c r="BJ22" s="3">
-        <f t="shared" si="6"/>
-        <v>38.311139294018183</v>
-      </c>
-      <c r="BK22" s="3">
-        <f t="shared" si="7"/>
         <v>79.528640879306707</v>
       </c>
       <c r="BM22">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK22:AV22)</f>
         <v>3.4347917987740435</v>
       </c>
       <c r="BN22">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW22:BH22)</f>
         <v>3.1925949411681818</v>
       </c>
       <c r="BO22">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK22:BH22)</f>
         <v>3.3136933699711126</v>
       </c>
       <c r="BQ22">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK22:AV22)</f>
         <v>3.4347917987740439</v>
       </c>
       <c r="BR22">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW22:BH22)</f>
         <v>3.1705770450221942</v>
       </c>
       <c r="BS22">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK22:BH22)</f>
         <v>3.1705770450221942</v>
       </c>
       <c r="BU22" s="3">
@@ -5590,14 +5590,14 @@
         <v>308812</v>
       </c>
       <c r="BX22" s="24">
-        <f t="shared" si="14"/>
+        <f>BW22/B22*100000</f>
         <v>81592.686535616143</v>
       </c>
       <c r="BY22">
         <v>314691</v>
       </c>
       <c r="BZ22" s="24">
-        <f t="shared" si="15"/>
+        <f>BY22/B22*100000</f>
         <v>83146.005072923275</v>
       </c>
     </row>
@@ -5780,39 +5780,39 @@
         <v>9.7461343864808399</v>
       </c>
       <c r="BI23" s="3">
+        <f>SUM(AK23:AV23)</f>
+        <v>86.443974558351812</v>
+      </c>
+      <c r="BJ23" s="3">
+        <f>SUM(AW23:BH23)</f>
+        <v>65.256725892089108</v>
+      </c>
+      <c r="BK23" s="3">
         <f t="shared" si="5"/>
-        <v>86.443974558351812</v>
-      </c>
-      <c r="BJ23" s="3">
-        <f t="shared" si="6"/>
-        <v>65.256725892089108</v>
-      </c>
-      <c r="BK23" s="3">
-        <f t="shared" si="7"/>
         <v>151.70070045044093</v>
       </c>
       <c r="BM23">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK23:AV23)</f>
         <v>7.2036645465293176</v>
       </c>
       <c r="BN23">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW23:BH23)</f>
         <v>5.4380604910074259</v>
       </c>
       <c r="BO23">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK23:BH23)</f>
         <v>6.3208625187683714</v>
       </c>
       <c r="BQ23">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK23:AV23)</f>
         <v>7.2036645465293176</v>
       </c>
       <c r="BR23">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW23:BH23)</f>
         <v>5.0849396799030471</v>
       </c>
       <c r="BS23">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK23:BH23)</f>
         <v>6.3561745998788091</v>
       </c>
       <c r="BU23" s="3">
@@ -5822,14 +5822,14 @@
         <v>195340</v>
       </c>
       <c r="BX23" s="24">
-        <f t="shared" si="14"/>
+        <f>BW23/B23*100000</f>
         <v>82774.343089355112</v>
       </c>
       <c r="BY23">
         <v>192124</v>
       </c>
       <c r="BZ23" s="24">
-        <f t="shared" si="15"/>
+        <f>BY23/B23*100000</f>
         <v>81411.579255141085</v>
       </c>
     </row>
@@ -5850,111 +5850,111 @@
         <v>76450.338323604839</v>
       </c>
       <c r="AK24" s="17">
-        <f t="shared" ref="AK24:BH24" si="16">SUM(AK4:AK23)</f>
+        <f t="shared" ref="AK24:BH24" si="6">SUM(AK4:AK23)</f>
         <v>91.652538464878447</v>
       </c>
       <c r="AL24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>76.214470634946068</v>
       </c>
       <c r="AM24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>81.830745487744949</v>
       </c>
       <c r="AN24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>79.244416812008154</v>
       </c>
       <c r="AO24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>78.133345784746254</v>
       </c>
       <c r="AP24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>78.044425672471846</v>
       </c>
       <c r="AQ24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>89.494158223881044</v>
       </c>
       <c r="AR24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>74.653078148837125</v>
       </c>
       <c r="AS24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>78.070516588419451</v>
       </c>
       <c r="AT24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>83.20179967676647</v>
       </c>
       <c r="AU24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>77.996681682636321</v>
       </c>
       <c r="AV24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>81.081334409119762</v>
       </c>
       <c r="AW24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>69.976101440660329</v>
       </c>
       <c r="AX24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>72.012201871215723</v>
       </c>
       <c r="AY24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>91.24430829920297</v>
       </c>
       <c r="AZ24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>62.203428281742234</v>
       </c>
       <c r="BA24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>64.206361483909362</v>
       </c>
       <c r="BB24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>73.568011386229031</v>
       </c>
       <c r="BC24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>70.318830879689699</v>
       </c>
       <c r="BD24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>61.281192931167993</v>
       </c>
       <c r="BE24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>74.507811127651337</v>
       </c>
       <c r="BF24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>84.146845027750771</v>
       </c>
       <c r="BG24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH24" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>74.82245899562119</v>
       </c>
       <c r="BI24" s="17">
-        <f t="shared" ref="BI24" si="17">SUM(BI4:BI23)</f>
+        <f t="shared" ref="BI24" si="7">SUM(BI4:BI23)</f>
         <v>969.61751158645575</v>
       </c>
       <c r="BJ24" s="17">
-        <f t="shared" ref="BJ24" si="18">SUM(BJ4:BJ23)</f>
+        <f t="shared" ref="BJ24" si="8">SUM(BJ4:BJ23)</f>
         <v>798.28755172484068</v>
       </c>
       <c r="BK24" s="17">
-        <f t="shared" ref="BK24" si="19">SUM(BK4:BK23)</f>
+        <f t="shared" ref="BK24" si="9">SUM(BK4:BK23)</f>
         <v>1767.9050633112968</v>
       </c>
       <c r="BU24" s="17">
@@ -5970,131 +5970,131 @@
         <v>1145173.8999999999</v>
       </c>
       <c r="AI25" s="16">
-        <f t="shared" ref="AI25:BO25" si="20">AVERAGE(AI4:AI23)</f>
+        <f t="shared" ref="AI25:BO25" si="10">AVERAGE(AI4:AI23)</f>
         <v>4083.7530552865746</v>
       </c>
       <c r="AJ25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3822.5169161802419</v>
       </c>
       <c r="AK25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.5826269232439225</v>
       </c>
       <c r="AL25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.8107235317473034</v>
       </c>
       <c r="AM25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.0915372743872478</v>
       </c>
       <c r="AN25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.9622208406004078</v>
       </c>
       <c r="AO25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.9066672892373129</v>
       </c>
       <c r="AP25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.9022212836235921</v>
       </c>
       <c r="AQ25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.4747079111940522</v>
       </c>
       <c r="AR25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.7326539074418563</v>
       </c>
       <c r="AS25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.9035258294209725</v>
       </c>
       <c r="AT25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.1600899838383238</v>
       </c>
       <c r="AU25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.899834084131816</v>
       </c>
       <c r="AV25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.0540667204559879</v>
       </c>
       <c r="AW25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.4988050720330164</v>
       </c>
       <c r="AX25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.6006100935607863</v>
       </c>
       <c r="AY25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.5622154149601482</v>
       </c>
       <c r="AZ25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.1101714140871115</v>
       </c>
       <c r="BA25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.210318074195468</v>
       </c>
       <c r="BB25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.6784005693114517</v>
       </c>
       <c r="BC25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.5159415439844848</v>
       </c>
       <c r="BD25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.0640596465583996</v>
       </c>
       <c r="BE25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.7253905563825667</v>
       </c>
       <c r="BF25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.2073422513875389</v>
       </c>
       <c r="BG25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BH25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.7411229497810594</v>
       </c>
       <c r="BI25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>48.480875579322785</v>
       </c>
       <c r="BJ25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>39.914377586242033</v>
       </c>
       <c r="BK25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>88.395253165564839</v>
       </c>
       <c r="BM25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.0400729649435663</v>
       </c>
       <c r="BN25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.3261981321868355</v>
       </c>
       <c r="BO25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.6831355485652018</v>
       </c>
       <c r="BU25" s="17">
@@ -6319,39 +6319,39 @@
         <v>1.1017148782775399</v>
       </c>
       <c r="BI27" s="23">
+        <f>SUM(AK27:AV27)</f>
+        <v>17.737334798403484</v>
+      </c>
+      <c r="BJ27" s="23">
+        <f>SUM(AW27:BH27)</f>
+        <v>13.41289784476546</v>
+      </c>
+      <c r="BK27" s="23">
         <f t="shared" si="5"/>
-        <v>17.737334798403484</v>
-      </c>
-      <c r="BJ27" s="23">
-        <f t="shared" si="6"/>
-        <v>13.41289784476546</v>
-      </c>
-      <c r="BK27" s="23">
-        <f t="shared" si="7"/>
         <v>31.150232643168945</v>
       </c>
       <c r="BM27" s="22">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK27:AV27)</f>
         <v>1.4781112332002904</v>
       </c>
       <c r="BN27" s="22">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW27:BH27)</f>
         <v>1.1177414870637883</v>
       </c>
       <c r="BO27" s="22">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK27:BH27)</f>
         <v>1.2979263601320394</v>
       </c>
       <c r="BQ27" s="22">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK27:AV27)</f>
         <v>1.4437685000869007</v>
       </c>
       <c r="BR27" s="22">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW27:BH27)</f>
         <v>1.2487017760028476</v>
       </c>
       <c r="BS27" s="22">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK27:BH27)</f>
         <v>1.3585985219656946</v>
       </c>
       <c r="BU27" s="23">
@@ -6455,26 +6455,26 @@
         <v>4</v>
       </c>
       <c r="AC28">
-        <f t="shared" ref="AC28:AC47" si="21">SUM(E28:P28)</f>
+        <f t="shared" ref="AC28:AC47" si="11">SUM(E28:P28)</f>
         <v>35</v>
       </c>
       <c r="AD28">
-        <f t="shared" ref="AD28:AD47" si="22">SUM(Q28:AB28)</f>
+        <f t="shared" ref="AD28:AD47" si="12">SUM(Q28:AB28)</f>
         <v>29</v>
       </c>
       <c r="AE28">
-        <f t="shared" ref="AE28:AE47" si="23">SUM(AC28:AD28)</f>
+        <f t="shared" ref="AE28:AE47" si="13">SUM(AC28:AD28)</f>
         <v>64</v>
       </c>
       <c r="AH28">
         <v>744885</v>
       </c>
       <c r="AI28">
-        <f t="shared" ref="AI28:AI47" si="24">C28/B28*100000</f>
+        <f t="shared" ref="AI28:AI47" si="14">C28/B28*100000</f>
         <v>5891.9162018298121</v>
       </c>
       <c r="AJ28">
-        <f t="shared" ref="AJ28:AJ47" si="25">D28/B28*100000</f>
+        <f t="shared" ref="AJ28:AJ47" si="15">D28/B28*100000</f>
         <v>5794.9884881558892</v>
       </c>
       <c r="AK28" cm="1">
@@ -6551,39 +6551,39 @@
         <v>0.53699564362284113</v>
       </c>
       <c r="BI28" s="3">
+        <f>SUM(AK28:AV28)</f>
+        <v>4.6987118816998601</v>
+      </c>
+      <c r="BJ28" s="3">
+        <f>SUM(AW28:BH28)</f>
+        <v>3.8932184162655989</v>
+      </c>
+      <c r="BK28" s="3">
         <f t="shared" si="5"/>
-        <v>4.6987118816998601</v>
-      </c>
-      <c r="BJ28" s="3">
-        <f t="shared" si="6"/>
-        <v>3.8932184162655989</v>
-      </c>
-      <c r="BK28" s="3">
-        <f t="shared" si="7"/>
         <v>8.5919302979654582</v>
       </c>
       <c r="BM28">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK28:AV28)</f>
         <v>0.39155932347498834</v>
       </c>
       <c r="BN28">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW28:BH28)</f>
         <v>0.32443486802213323</v>
       </c>
       <c r="BO28">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK28:BH28)</f>
         <v>0.35799709574856081</v>
       </c>
       <c r="BQ28">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK28:AV28)</f>
         <v>0.4027467327171308</v>
       </c>
       <c r="BR28">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW28:BH28)</f>
         <v>0.33562227726427568</v>
       </c>
       <c r="BS28">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK28:BH28)</f>
         <v>0.4027467327171308</v>
       </c>
       <c r="BU28" s="3">
@@ -6593,14 +6593,14 @@
         <v>519016</v>
       </c>
       <c r="BX28" s="24">
-        <f t="shared" ref="BX28:BX47" si="26">BW28/B28*100000</f>
+        <f>BW28/B28*100000</f>
         <v>69677.332742638115</v>
       </c>
       <c r="BY28">
         <v>524562</v>
       </c>
       <c r="BZ28" s="24">
-        <f t="shared" ref="BZ28:BZ47" si="27">BY28/B28*100000</f>
+        <f>BY28/B28*100000</f>
         <v>70421.877202521195</v>
       </c>
     </row>
@@ -6687,26 +6687,26 @@
         <v>4</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="AH29">
         <v>497473</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>2929.4052139513101</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2240.1215744372057</v>
       </c>
       <c r="AK29" cm="1">
@@ -6783,39 +6783,39 @@
         <v>0.80406373813252174</v>
       </c>
       <c r="BI29" s="3">
+        <f>SUM(AK29:AV29)</f>
+        <v>6.8345417741264356</v>
+      </c>
+      <c r="BJ29" s="3">
+        <f>SUM(AW29:BH29)</f>
+        <v>5.6284461669276515</v>
+      </c>
+      <c r="BK29" s="3">
         <f t="shared" si="5"/>
-        <v>6.8345417741264356</v>
-      </c>
-      <c r="BJ29" s="3">
-        <f t="shared" si="6"/>
-        <v>5.6284461669276515</v>
-      </c>
-      <c r="BK29" s="3">
-        <f t="shared" si="7"/>
         <v>12.462987941054088</v>
       </c>
       <c r="BM29">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK29:AV29)</f>
         <v>0.56954514784386967</v>
       </c>
       <c r="BN29">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW29:BH29)</f>
         <v>0.46903718057730431</v>
       </c>
       <c r="BO29">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK29:BH29)</f>
         <v>0.51929116421058696</v>
       </c>
       <c r="BQ29">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK29:AV29)</f>
         <v>0.60304780359939125</v>
       </c>
       <c r="BR29">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW29:BH29)</f>
         <v>0.40203186906626087</v>
       </c>
       <c r="BS29">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK29:BH29)</f>
         <v>0.50253983633282606</v>
       </c>
       <c r="BU29" s="3">
@@ -6825,14 +6825,14 @@
         <v>399518</v>
       </c>
       <c r="BX29" s="24">
-        <f t="shared" si="26"/>
+        <f>BW29/B29*100000</f>
         <v>80309.484132807207</v>
       </c>
       <c r="BY29">
         <v>409848</v>
       </c>
       <c r="BZ29" s="24">
-        <f t="shared" si="27"/>
+        <f>BY29/B29*100000</f>
         <v>82385.978736534453</v>
       </c>
     </row>
@@ -6919,26 +6919,26 @@
         <v>7</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>243</v>
       </c>
       <c r="AH30">
         <v>872147</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>6038.660913813841</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>5670.0303962520074</v>
       </c>
       <c r="AK30" cm="1">
@@ -7015,39 +7015,39 @@
         <v>0.80261699002576392</v>
       </c>
       <c r="BI30" s="3">
+        <f>SUM(AK30:AV30)</f>
+        <v>14.791084530474794</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f>SUM(AW30:BH30)</f>
+        <v>13.071190980419583</v>
+      </c>
+      <c r="BK30" s="3">
         <f t="shared" si="5"/>
-        <v>14.791084530474794</v>
-      </c>
-      <c r="BJ30" s="3">
-        <f t="shared" si="6"/>
-        <v>13.071190980419583</v>
-      </c>
-      <c r="BK30" s="3">
-        <f t="shared" si="7"/>
         <v>27.862275510894378</v>
       </c>
       <c r="BM30">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK30:AV30)</f>
         <v>1.2325903775395661</v>
       </c>
       <c r="BN30">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW30:BH30)</f>
         <v>1.0892659150349653</v>
       </c>
       <c r="BO30">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK30:BH30)</f>
         <v>1.1609281462872658</v>
       </c>
       <c r="BQ30">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK30:AV30)</f>
         <v>1.0892659150349653</v>
       </c>
       <c r="BR30">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW30:BH30)</f>
         <v>1.1465957000368057</v>
       </c>
       <c r="BS30">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK30:BH30)</f>
         <v>1.1465957000368057</v>
       </c>
       <c r="BU30" s="3">
@@ -7057,14 +7057,14 @@
         <v>623047</v>
       </c>
       <c r="BX30" s="24">
-        <f t="shared" si="26"/>
+        <f>BW30/B30*100000</f>
         <v>71438.301112083165</v>
       </c>
       <c r="BY30">
         <v>624264</v>
       </c>
       <c r="BZ30" s="24">
-        <f t="shared" si="27"/>
+        <f>BY30/B30*100000</f>
         <v>71577.841808777652</v>
       </c>
     </row>
@@ -7151,26 +7151,26 @@
         <v>30</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>419</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>349</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>768</v>
       </c>
       <c r="AH31">
         <v>1758489</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>5201.8522720358214</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>4992.4679653952908</v>
       </c>
       <c r="AK31" cm="1">
@@ -7247,39 +7247,39 @@
         <v>1.70601010299183</v>
       </c>
       <c r="BI31" s="3">
+        <f>SUM(AK31:AV31)</f>
+        <v>23.827274438452559</v>
+      </c>
+      <c r="BJ31" s="3">
+        <f>SUM(AW31:BH31)</f>
+        <v>19.846584198138288</v>
+      </c>
+      <c r="BK31" s="3">
         <f t="shared" si="5"/>
-        <v>23.827274438452559</v>
-      </c>
-      <c r="BJ31" s="3">
-        <f t="shared" si="6"/>
-        <v>19.846584198138288</v>
-      </c>
-      <c r="BK31" s="3">
-        <f t="shared" si="7"/>
         <v>43.67385863659085</v>
       </c>
       <c r="BM31">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK31:AV31)</f>
         <v>1.98560620320438</v>
       </c>
       <c r="BN31">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW31:BH31)</f>
         <v>1.653882016511524</v>
       </c>
       <c r="BO31">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK31:BH31)</f>
         <v>1.8197441098579523</v>
       </c>
       <c r="BQ31">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK31:AV31)</f>
         <v>1.9050446150075433</v>
       </c>
       <c r="BR31">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW31:BH31)</f>
         <v>1.70601010299183</v>
       </c>
       <c r="BS31">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK31:BH31)</f>
         <v>1.8481776115744823</v>
       </c>
       <c r="BU31" s="3">
@@ -7289,14 +7289,14 @@
         <v>1248835</v>
       </c>
       <c r="BX31" s="24">
-        <f t="shared" si="26"/>
+        <f>BW31/B31*100000</f>
         <v>71017.504232326741</v>
       </c>
       <c r="BY31">
         <v>1267220</v>
       </c>
       <c r="BZ31" s="24">
-        <f t="shared" si="27"/>
+        <f>BY31/B31*100000</f>
         <v>72063.004090443559</v>
       </c>
     </row>
@@ -7383,26 +7383,26 @@
         <v>4</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="AH32">
         <v>564866</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>2745.0758232926037</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2847.5780096518465</v>
       </c>
       <c r="AK32" cm="1">
@@ -7479,39 +7479,39 @@
         <v>0.70813254825038152</v>
       </c>
       <c r="BI32" s="3">
+        <f>SUM(AK32:AV32)</f>
+        <v>9.5597894013801508</v>
+      </c>
+      <c r="BJ32" s="3">
+        <f>SUM(AW32:BH32)</f>
+        <v>9.0286899901923636</v>
+      </c>
+      <c r="BK32" s="3">
         <f t="shared" si="5"/>
-        <v>9.5597894013801508</v>
-      </c>
-      <c r="BJ32" s="3">
-        <f t="shared" si="6"/>
-        <v>9.0286899901923636</v>
-      </c>
-      <c r="BK32" s="3">
-        <f t="shared" si="7"/>
         <v>18.588479391572513</v>
       </c>
       <c r="BM32">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK32:AV32)</f>
         <v>0.79664911678167927</v>
       </c>
       <c r="BN32">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW32:BH32)</f>
         <v>0.75239083251603034</v>
       </c>
       <c r="BO32">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK32:BH32)</f>
         <v>0.77451997464885469</v>
       </c>
       <c r="BQ32">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK32:AV32)</f>
         <v>0.79664911678167916</v>
       </c>
       <c r="BR32">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW32:BH32)</f>
         <v>0.61961597971908389</v>
       </c>
       <c r="BS32">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK32:BH32)</f>
         <v>0.70813254825038152</v>
       </c>
       <c r="BU32" s="3">
@@ -7521,14 +7521,14 @@
         <v>442355</v>
       </c>
       <c r="BX32" s="24">
-        <f t="shared" si="26"/>
+        <f>BW32/B32*100000</f>
         <v>78311.493345324372</v>
       </c>
       <c r="BY32">
         <v>443995</v>
       </c>
       <c r="BZ32" s="24">
-        <f t="shared" si="27"/>
+        <f>BY32/B32*100000</f>
         <v>78601.827690107035</v>
       </c>
     </row>
@@ -7615,26 +7615,26 @@
         <v>23</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>407</v>
       </c>
       <c r="AH33">
         <v>914431</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3561.8871188750163</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3338.4694963315987</v>
       </c>
       <c r="AK33" cm="1">
@@ -7711,39 +7711,39 @@
         <v>2.5152253149772918</v>
       </c>
       <c r="BI33" s="3">
+        <f>SUM(AK33:AV33)</f>
+        <v>23.621246436308482</v>
+      </c>
+      <c r="BJ33" s="3">
+        <f>SUM(AW33:BH33)</f>
+        <v>20.887305876550553</v>
+      </c>
+      <c r="BK33" s="3">
         <f t="shared" si="5"/>
-        <v>23.621246436308482</v>
-      </c>
-      <c r="BJ33" s="3">
-        <f t="shared" si="6"/>
-        <v>20.887305876550553</v>
-      </c>
-      <c r="BK33" s="3">
-        <f t="shared" si="7"/>
         <v>44.508552312859038</v>
       </c>
       <c r="BM33">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK33:AV33)</f>
         <v>1.9684372030257069</v>
       </c>
       <c r="BN33">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW33:BH33)</f>
         <v>1.7406088230458794</v>
       </c>
       <c r="BO33">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK33:BH33)</f>
         <v>1.8545230130357933</v>
       </c>
       <c r="BQ33">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK33:AV33)</f>
         <v>2.2418312590014993</v>
       </c>
       <c r="BR33">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW33:BH33)</f>
         <v>1.4763279022692801</v>
       </c>
       <c r="BS33">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK33:BH33)</f>
         <v>1.9684372030257067</v>
       </c>
       <c r="BU33" s="3">
@@ -7753,14 +7753,14 @@
         <v>661181</v>
       </c>
       <c r="BX33" s="24">
-        <f t="shared" si="26"/>
+        <f>BW33/B33*100000</f>
         <v>72305.18212965221</v>
       </c>
       <c r="BY33">
         <v>687784</v>
       </c>
       <c r="BZ33" s="24">
-        <f t="shared" si="27"/>
+        <f>BY33/B33*100000</f>
         <v>75214.422958101815</v>
       </c>
     </row>
@@ -7847,26 +7847,26 @@
         <v>7</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>177</v>
       </c>
       <c r="AH34">
         <v>1363276</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>4291.5007672694301</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3554.5260094067526</v>
       </c>
       <c r="AK34" cm="1">
@@ -7943,39 +7943,39 @@
         <v>0.51346902608129241</v>
       </c>
       <c r="BI34" s="3">
+        <f>SUM(AK34:AV34)</f>
+        <v>7.2619190831497074</v>
+      </c>
+      <c r="BJ34" s="3">
+        <f>SUM(AW34:BH34)</f>
+        <v>5.7215120049058292</v>
+      </c>
+      <c r="BK34" s="3">
         <f t="shared" si="5"/>
-        <v>7.2619190831497074</v>
-      </c>
-      <c r="BJ34" s="3">
-        <f t="shared" si="6"/>
-        <v>5.7215120049058292</v>
-      </c>
-      <c r="BK34" s="3">
-        <f t="shared" si="7"/>
         <v>12.983431088055536</v>
       </c>
       <c r="BM34">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK34:AV34)</f>
         <v>0.60515992359580895</v>
       </c>
       <c r="BN34">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW34:BH34)</f>
         <v>0.47679266707548579</v>
       </c>
       <c r="BO34">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK34:BH34)</f>
         <v>0.54097629533564739</v>
       </c>
       <c r="BQ34">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK34:AV34)</f>
         <v>0.58682174409290555</v>
       </c>
       <c r="BR34">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW34:BH34)</f>
         <v>0.51346902608129241</v>
       </c>
       <c r="BS34">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK34:BH34)</f>
         <v>0.51346902608129241</v>
       </c>
       <c r="BU34" s="3">
@@ -7985,14 +7985,14 @@
         <v>1017449</v>
       </c>
       <c r="BX34" s="24">
-        <f t="shared" si="26"/>
+        <f>BW34/B34*100000</f>
         <v>74632.649588197848</v>
       </c>
       <c r="BY34">
         <v>1039548</v>
       </c>
       <c r="BZ34" s="24">
-        <f t="shared" si="27"/>
+        <f>BY34/B34*100000</f>
         <v>76253.671303536481</v>
       </c>
     </row>
@@ -8079,26 +8079,26 @@
         <v>6</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
       <c r="AH35">
         <v>1116792</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3849.8664030544633</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3176.1509752935194</v>
       </c>
       <c r="AK35" cm="1">
@@ -8175,39 +8175,39 @@
         <v>0.53725313218576065</v>
       </c>
       <c r="BI35" s="3">
+        <f>SUM(AK35:AV35)</f>
+        <v>8.7751344923674246</v>
+      </c>
+      <c r="BJ35" s="3">
+        <f>SUM(AW35:BH35)</f>
+        <v>5.1934469444623534</v>
+      </c>
+      <c r="BK35" s="3">
         <f t="shared" si="5"/>
-        <v>8.7751344923674246</v>
-      </c>
-      <c r="BJ35" s="3">
-        <f t="shared" si="6"/>
-        <v>5.1934469444623534</v>
-      </c>
-      <c r="BK35" s="3">
-        <f t="shared" si="7"/>
         <v>13.968581436829778</v>
       </c>
       <c r="BM35">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK35:AV35)</f>
         <v>0.73126120769728542</v>
       </c>
       <c r="BN35">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW35:BH35)</f>
         <v>0.43278724537186281</v>
       </c>
       <c r="BO35">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK35:BH35)</f>
         <v>0.58202422653457409</v>
       </c>
       <c r="BQ35">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK35:AV35)</f>
         <v>0.62679532088338741</v>
       </c>
       <c r="BR35">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW35:BH35)</f>
         <v>0.35816875479050708</v>
       </c>
       <c r="BS35">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK35:BH35)</f>
         <v>0.53725313218576065</v>
       </c>
       <c r="BU35" s="3">
@@ -8217,14 +8217,14 @@
         <v>852225</v>
       </c>
       <c r="BX35" s="24">
-        <f t="shared" si="26"/>
+        <f>BW35/B35*100000</f>
         <v>76310.091762834971</v>
       </c>
       <c r="BY35">
         <v>868678</v>
       </c>
       <c r="BZ35" s="24">
-        <f t="shared" si="27"/>
+        <f>BY35/B35*100000</f>
         <v>77783.329393477034</v>
       </c>
     </row>
@@ -8311,26 +8311,26 @@
         <v>3</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="AH36">
         <v>443129</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3631.8995145883027</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>4425.1222555960003</v>
       </c>
       <c r="AK36" cm="1">
@@ -8407,39 +8407,39 @@
         <v>0.67700376188423683</v>
       </c>
       <c r="BI36" s="3">
+        <f>SUM(AK36:AV36)</f>
+        <v>8.3497130632389229</v>
+      </c>
+      <c r="BJ36" s="3">
+        <f>SUM(AW36:BH36)</f>
+        <v>6.3187017775862104</v>
+      </c>
+      <c r="BK36" s="3">
         <f t="shared" si="5"/>
-        <v>8.3497130632389229</v>
-      </c>
-      <c r="BJ36" s="3">
-        <f t="shared" si="6"/>
-        <v>6.3187017775862104</v>
-      </c>
-      <c r="BK36" s="3">
-        <f t="shared" si="7"/>
         <v>14.668414840825132</v>
       </c>
       <c r="BM36">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK36:AV36)</f>
         <v>0.69580942193657691</v>
       </c>
       <c r="BN36">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW36:BH36)</f>
         <v>0.52655848146551754</v>
       </c>
       <c r="BO36">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK36:BH36)</f>
         <v>0.61118395170104722</v>
       </c>
       <c r="BQ36">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK36:AV36)</f>
         <v>0.45133584125615789</v>
       </c>
       <c r="BR36">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW36:BH36)</f>
         <v>0.56416980157019736</v>
       </c>
       <c r="BS36">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK36:BH36)</f>
         <v>0.45133584125615789</v>
       </c>
       <c r="BU36" s="3">
@@ -8449,14 +8449,14 @@
         <v>346350</v>
       </c>
       <c r="BX36" s="24">
-        <f t="shared" si="26"/>
+        <f>BW36/B36*100000</f>
         <v>78160.084309535145</v>
       </c>
       <c r="BY36">
         <v>338563</v>
       </c>
       <c r="BZ36" s="24">
-        <f t="shared" si="27"/>
+        <f>BY36/B36*100000</f>
         <v>76402.808211604293</v>
       </c>
     </row>
@@ -8543,26 +8543,26 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="AH37">
         <v>341955</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1827.1409980845431</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1977.4531736632014</v>
       </c>
       <c r="AK37" cm="1">
@@ -8639,39 +8639,39 @@
         <v>0</v>
       </c>
       <c r="BI37" s="3">
+        <f>SUM(AK37:AV37)</f>
+        <v>5.2638505066456114</v>
+      </c>
+      <c r="BJ37" s="3">
+        <f>SUM(AW37:BH37)</f>
+        <v>9.9428287347750448</v>
+      </c>
+      <c r="BK37" s="3">
         <f t="shared" si="5"/>
-        <v>5.2638505066456114</v>
-      </c>
-      <c r="BJ37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.9428287347750448</v>
-      </c>
-      <c r="BK37" s="3">
-        <f t="shared" si="7"/>
         <v>15.206679241420655</v>
       </c>
       <c r="BM37">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK37:AV37)</f>
         <v>0.4386542088871343</v>
       </c>
       <c r="BN37">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW37:BH37)</f>
         <v>0.82856906123125373</v>
       </c>
       <c r="BO37">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK37:BH37)</f>
         <v>0.63361163505919393</v>
       </c>
       <c r="BQ37">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK37:AV37)</f>
         <v>0.29243613925808953</v>
       </c>
       <c r="BR37">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW37:BH37)</f>
         <v>0.73109034814522378</v>
       </c>
       <c r="BS37">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK37:BH37)</f>
         <v>0.58487227851617907</v>
       </c>
       <c r="BU37" s="3">
@@ -8681,14 +8681,14 @@
         <v>279239</v>
       </c>
       <c r="BX37" s="24">
-        <f t="shared" si="26"/>
+        <f>BW37/B37*100000</f>
         <v>81659.575090289654</v>
       </c>
       <c r="BY37">
         <v>274681</v>
       </c>
       <c r="BZ37" s="24">
-        <f t="shared" si="27"/>
+        <f>BY37/B37*100000</f>
         <v>80326.651167551288</v>
       </c>
     </row>
@@ -8775,26 +8775,26 @@
         <v>45</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>603</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>517</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1120</v>
       </c>
       <c r="AH38">
         <v>1773203</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>6249.7074503032081</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>5689.4783056423885</v>
       </c>
       <c r="AK38" cm="1">
@@ -8871,39 +8871,39 @@
         <v>2.537780502288796</v>
       </c>
       <c r="BI38" s="3">
+        <f>SUM(AK38:AV38)</f>
+        <v>34.00625873066987</v>
+      </c>
+      <c r="BJ38" s="3">
+        <f>SUM(AW38:BH38)</f>
+        <v>29.156278215184614</v>
+      </c>
+      <c r="BK38" s="3">
         <f t="shared" si="5"/>
-        <v>34.00625873066987</v>
-      </c>
-      <c r="BJ38" s="3">
-        <f t="shared" si="6"/>
-        <v>29.156278215184614</v>
-      </c>
-      <c r="BK38" s="3">
-        <f t="shared" si="7"/>
         <v>63.162536945854484</v>
       </c>
       <c r="BM38">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK38:AV38)</f>
         <v>2.833854894222489</v>
       </c>
       <c r="BN38">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW38:BH38)</f>
         <v>2.4296898512653846</v>
       </c>
       <c r="BO38">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK38:BH38)</f>
         <v>2.6317723727439368</v>
       </c>
       <c r="BQ38">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK38:AV38)</f>
         <v>2.7915585525176758</v>
       </c>
       <c r="BR38">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW38:BH38)</f>
         <v>2.5659780634253382</v>
       </c>
       <c r="BS38">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK38:BH38)</f>
         <v>2.6787683079715068</v>
       </c>
       <c r="BU38" s="3">
@@ -8913,14 +8913,14 @@
         <v>1163874</v>
       </c>
       <c r="BX38" s="24">
-        <f t="shared" si="26"/>
+        <f>BW38/B38*100000</f>
         <v>65636.816540463784</v>
       </c>
       <c r="BY38">
         <v>1171370</v>
       </c>
       <c r="BZ38" s="24">
-        <f t="shared" si="27"/>
+        <f>BY38/B38*100000</f>
         <v>66059.554377022825</v>
       </c>
     </row>
@@ -9007,26 +9007,26 @@
         <v>7</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>203</v>
       </c>
       <c r="AH39">
         <v>1095125</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>4168.1086633945897</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3525.259673553247</v>
       </c>
       <c r="AK39" cm="1">
@@ -9103,39 +9103,39 @@
         <v>0.63919643876269838</v>
       </c>
       <c r="BI39" s="3">
+        <f>SUM(AK39:AV39)</f>
+        <v>9.2226914735760754</v>
+      </c>
+      <c r="BJ39" s="3">
+        <f>SUM(AW39:BH39)</f>
+        <v>9.3140052505421753</v>
+      </c>
+      <c r="BK39" s="3">
         <f t="shared" si="5"/>
-        <v>9.2226914735760754</v>
-      </c>
-      <c r="BJ39" s="3">
-        <f t="shared" si="6"/>
-        <v>9.3140052505421753</v>
-      </c>
-      <c r="BK39" s="3">
-        <f t="shared" si="7"/>
         <v>18.536696724118251</v>
       </c>
       <c r="BM39">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK39:AV39)</f>
         <v>0.76855762279800632</v>
       </c>
       <c r="BN39">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW39:BH39)</f>
         <v>0.77616710421184798</v>
       </c>
       <c r="BO39">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK39:BH39)</f>
         <v>0.77236236350492726</v>
       </c>
       <c r="BQ39">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK39:AV39)</f>
         <v>0.82182399269489781</v>
       </c>
       <c r="BR39">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW39:BH39)</f>
         <v>0.68485332724574821</v>
       </c>
       <c r="BS39">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK39:BH39)</f>
         <v>0.73051021572879804</v>
       </c>
       <c r="BU39" s="3">
@@ -9145,14 +9145,14 @@
         <v>859302</v>
       </c>
       <c r="BX39" s="24">
-        <f t="shared" si="26"/>
+        <f>BW39/B39*100000</f>
         <v>78466.111174523452</v>
       </c>
       <c r="BY39">
         <v>872190</v>
       </c>
       <c r="BZ39" s="24">
-        <f t="shared" si="27"/>
+        <f>BY39/B39*100000</f>
         <v>79642.963132062549</v>
       </c>
     </row>
@@ -9239,26 +9239,26 @@
         <v>3</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="AH40">
         <v>730237</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3719.8882006800536</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2708.4357544194559</v>
       </c>
       <c r="AK40" cm="1">
@@ -9335,39 +9335,39 @@
         <v>0.41082552650714771</v>
       </c>
       <c r="BI40" s="3">
+        <f>SUM(AK40:AV40)</f>
+        <v>10.681463689185842</v>
+      </c>
+      <c r="BJ40" s="3">
+        <f>SUM(AW40:BH40)</f>
+        <v>9.8598126361715455</v>
+      </c>
+      <c r="BK40" s="3">
         <f t="shared" si="5"/>
-        <v>10.681463689185842</v>
-      </c>
-      <c r="BJ40" s="3">
-        <f t="shared" si="6"/>
-        <v>9.8598126361715455</v>
-      </c>
-      <c r="BK40" s="3">
-        <f t="shared" si="7"/>
         <v>20.541276325357387</v>
       </c>
       <c r="BM40">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK40:AV40)</f>
         <v>0.8901219740988201</v>
       </c>
       <c r="BN40">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW40:BH40)</f>
         <v>0.82165105301429542</v>
       </c>
       <c r="BO40">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK40:BH40)</f>
         <v>0.85588651355655776</v>
       </c>
       <c r="BQ40">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK40:AV40)</f>
         <v>0.82165105301429542</v>
       </c>
       <c r="BR40">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW40:BH40)</f>
         <v>0.68470921084524616</v>
       </c>
       <c r="BS40">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK40:BH40)</f>
         <v>0.68470921084524616</v>
       </c>
       <c r="BU40" s="3">
@@ -9377,14 +9377,14 @@
         <v>586693</v>
       </c>
       <c r="BX40" s="24">
-        <f t="shared" si="26"/>
+        <f>BW40/B40*100000</f>
         <v>80342.820207685989</v>
       </c>
       <c r="BY40">
         <v>606519</v>
       </c>
       <c r="BZ40" s="24">
-        <f t="shared" si="27"/>
+        <f>BY40/B40*100000</f>
         <v>83057.829170529556</v>
       </c>
     </row>
@@ -9471,26 +9471,26 @@
         <v>5</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="AH41">
         <v>442068</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3454.2197128043649</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3089.5699304179448</v>
       </c>
       <c r="AK41" cm="1">
@@ -9567,39 +9567,39 @@
         <v>1.131047712116688</v>
       </c>
       <c r="BI41" s="3">
+        <f>SUM(AK41:AV41)</f>
+        <v>6.786286272700127</v>
+      </c>
+      <c r="BJ41" s="3">
+        <f>SUM(AW41:BH41)</f>
+        <v>7.2387053575468023</v>
+      </c>
+      <c r="BK41" s="3">
         <f t="shared" si="5"/>
-        <v>6.786286272700127</v>
-      </c>
-      <c r="BJ41" s="3">
-        <f t="shared" si="6"/>
-        <v>7.2387053575468023</v>
-      </c>
-      <c r="BK41" s="3">
-        <f t="shared" si="7"/>
         <v>14.02499163024693</v>
       </c>
       <c r="BM41">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK41:AV41)</f>
         <v>0.56552385605834388</v>
       </c>
       <c r="BN41">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW41:BH41)</f>
         <v>0.60322544646223353</v>
       </c>
       <c r="BO41">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK41:BH41)</f>
         <v>0.58437465126028865</v>
       </c>
       <c r="BQ41">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK41:AV41)</f>
         <v>0.4524190848466752</v>
       </c>
       <c r="BR41">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW41:BH41)</f>
         <v>0.4524190848466752</v>
       </c>
       <c r="BS41">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK41:BH41)</f>
         <v>0.4524190848466752</v>
       </c>
       <c r="BU41" s="3">
@@ -9609,14 +9609,14 @@
         <v>353328</v>
       </c>
       <c r="BX41" s="24">
-        <f t="shared" si="26"/>
+        <f>BW41/B41*100000</f>
         <v>79926.165205353027</v>
       </c>
       <c r="BY41">
         <v>350639</v>
       </c>
       <c r="BZ41" s="24">
-        <f t="shared" si="27"/>
+        <f>BY41/B41*100000</f>
         <v>79317.887745776665</v>
       </c>
     </row>
@@ -9703,26 +9703,26 @@
         <v>82</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1956</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1219</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>3175</v>
       </c>
       <c r="AH42">
         <v>5823490</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>5215.9615625681508</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>4852.4853653049977</v>
       </c>
       <c r="AK42" cm="1">
@@ -9799,39 +9799,39 @@
         <v>1.4080903375810725</v>
       </c>
       <c r="BI42" s="3">
+        <f>SUM(AK42:AV42)</f>
+        <v>33.588106101324122</v>
+      </c>
+      <c r="BJ42" s="3">
+        <f>SUM(AW42:BH42)</f>
+        <v>20.932464896479601</v>
+      </c>
+      <c r="BK42" s="3">
         <f t="shared" si="5"/>
-        <v>33.588106101324122</v>
-      </c>
-      <c r="BJ42" s="3">
-        <f t="shared" si="6"/>
-        <v>20.932464896479601</v>
-      </c>
-      <c r="BK42" s="3">
-        <f t="shared" si="7"/>
         <v>54.520570997803723</v>
       </c>
       <c r="BM42">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK42:AV42)</f>
         <v>2.79900884177701</v>
       </c>
       <c r="BN42">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW42:BH42)</f>
         <v>1.7443720747066334</v>
       </c>
       <c r="BO42">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK42:BH42)</f>
         <v>2.2716904582418218</v>
       </c>
       <c r="BQ42">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK42:AV42)</f>
         <v>2.7732510916993074</v>
       </c>
       <c r="BR42">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW42:BH42)</f>
         <v>1.9575890059053935</v>
       </c>
       <c r="BS42">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK42:BH42)</f>
         <v>2.3181975069932292</v>
       </c>
       <c r="BU42" s="3">
@@ -9841,14 +9841,14 @@
         <v>4289791</v>
       </c>
       <c r="BX42" s="24">
-        <f t="shared" si="26"/>
+        <f>BW42/B42*100000</f>
         <v>73663.576309051787</v>
       </c>
       <c r="BY42">
         <v>4419591</v>
       </c>
       <c r="BZ42" s="24">
-        <f t="shared" si="27"/>
+        <f>BY42/B42*100000</f>
         <v>75892.480282442324</v>
       </c>
     </row>
@@ -9935,26 +9935,26 @@
         <v>12</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>167</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>298</v>
       </c>
       <c r="AH43">
         <v>1490187</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3406.9549660545954</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3231.5407395179263</v>
       </c>
       <c r="AK43" cm="1">
@@ -10031,39 +10031,39 @@
         <v>0.80526806367254578</v>
       </c>
       <c r="BI43" s="3">
+        <f>SUM(AK43:AV43)</f>
+        <v>11.206647219442928</v>
+      </c>
+      <c r="BJ43" s="3">
+        <f>SUM(AW43:BH43)</f>
+        <v>8.7908430284252912</v>
+      </c>
+      <c r="BK43" s="3">
         <f t="shared" si="5"/>
-        <v>11.206647219442928</v>
-      </c>
-      <c r="BJ43" s="3">
-        <f t="shared" si="6"/>
-        <v>8.7908430284252912</v>
-      </c>
-      <c r="BK43" s="3">
-        <f t="shared" si="7"/>
         <v>19.997490247868221</v>
       </c>
       <c r="BM43">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK43:AV43)</f>
         <v>0.93388726828691071</v>
       </c>
       <c r="BN43">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW43:BH43)</f>
         <v>0.73257025236877427</v>
       </c>
       <c r="BO43">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK43:BH43)</f>
         <v>0.83322876032784254</v>
       </c>
       <c r="BQ43">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK43:AV43)</f>
         <v>0.83882089965890194</v>
       </c>
       <c r="BR43">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW43:BH43)</f>
         <v>0.7046095557134775</v>
       </c>
       <c r="BS43">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK43:BH43)</f>
         <v>0.80526806367254578</v>
       </c>
       <c r="BU43" s="3">
@@ -10073,14 +10073,14 @@
         <v>1197830</v>
       </c>
       <c r="BX43" s="24">
-        <f t="shared" si="26"/>
+        <f>BW43/B43*100000</f>
         <v>80381.187059073782</v>
       </c>
       <c r="BY43">
         <v>1220144</v>
       </c>
       <c r="BZ43" s="24">
-        <f t="shared" si="27"/>
+        <f>BY43/B43*100000</f>
         <v>81878.583023472893</v>
       </c>
     </row>
@@ -10167,26 +10167,26 @@
         <v>15</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>103</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>204</v>
       </c>
       <c r="AH44">
         <v>1213948</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3378.3984157476266</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3460.4447636966329</v>
       </c>
       <c r="AK44" cm="1">
@@ -10263,39 +10263,39 @@
         <v>1.2356377703163561</v>
       </c>
       <c r="BI44" s="3">
+        <f>SUM(AK44:AV44)</f>
+        <v>8.319960986796799</v>
+      </c>
+      <c r="BJ44" s="3">
+        <f>SUM(AW44:BH44)</f>
+        <v>8.4847126895056455</v>
+      </c>
+      <c r="BK44" s="3">
         <f t="shared" si="5"/>
-        <v>8.319960986796799</v>
-      </c>
-      <c r="BJ44" s="3">
-        <f t="shared" si="6"/>
-        <v>8.4847126895056455</v>
-      </c>
-      <c r="BK44" s="3">
-        <f t="shared" si="7"/>
         <v>16.804673676302443</v>
       </c>
       <c r="BM44">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK44:AV44)</f>
         <v>0.69333008223306658</v>
       </c>
       <c r="BN44">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW44:BH44)</f>
         <v>0.70705939079213709</v>
       </c>
       <c r="BO44">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK44:BH44)</f>
         <v>0.70019473651260189</v>
       </c>
       <c r="BQ44">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK44:AV44)</f>
         <v>0.61781888515817807</v>
       </c>
       <c r="BR44">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW44:BH44)</f>
         <v>0.61781888515817807</v>
       </c>
       <c r="BS44">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK44:BH44)</f>
         <v>0.61781888515817807</v>
       </c>
       <c r="BU44" s="3">
@@ -10305,14 +10305,14 @@
         <v>987919</v>
       </c>
       <c r="BX44" s="24">
-        <f t="shared" si="26"/>
+        <f>BW44/B44*100000</f>
         <v>81380.668694210952</v>
       </c>
       <c r="BY44">
         <v>983400</v>
       </c>
       <c r="BZ44" s="24">
-        <f t="shared" si="27"/>
+        <f>BY44/B44*100000</f>
         <v>81008.412221940322</v>
       </c>
     </row>
@@ -10399,26 +10399,26 @@
         <v>11</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>245</v>
       </c>
       <c r="AH45">
         <v>1103306</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>4632.2597719943515</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>4712.6545128912558</v>
       </c>
       <c r="AK45" cm="1">
@@ -10495,39 +10495,39 @@
         <v>0.99700355114537575</v>
       </c>
       <c r="BI45" s="3">
+        <f>SUM(AK45:AV45)</f>
+        <v>12.598499419018841</v>
+      </c>
+      <c r="BJ45" s="3">
+        <f>SUM(AW45:BH45)</f>
+        <v>9.6074887655827119</v>
+      </c>
+      <c r="BK45" s="3">
         <f t="shared" si="5"/>
-        <v>12.598499419018841</v>
-      </c>
-      <c r="BJ45" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6074887655827119</v>
-      </c>
-      <c r="BK45" s="3">
-        <f t="shared" si="7"/>
         <v>22.205988184601551</v>
       </c>
       <c r="BM45">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK45:AV45)</f>
         <v>1.0498749515849035</v>
       </c>
       <c r="BN45">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW45:BH45)</f>
         <v>0.80062406379855933</v>
       </c>
       <c r="BO45">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK45:BH45)</f>
         <v>0.92524950769173142</v>
       </c>
       <c r="BQ45">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK45:AV45)</f>
         <v>1.0423218943792565</v>
       </c>
       <c r="BR45">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW45:BH45)</f>
         <v>0.81573017820985294</v>
       </c>
       <c r="BS45">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK45:BH45)</f>
         <v>0.9063668646776144</v>
       </c>
       <c r="BU45" s="3">
@@ -10537,14 +10537,14 @@
         <v>828102</v>
       </c>
       <c r="BX45" s="24">
-        <f t="shared" si="26"/>
+        <f>BW45/B45*100000</f>
         <v>75056.421337326188</v>
       </c>
       <c r="BY45">
         <v>850890</v>
       </c>
       <c r="BZ45" s="24">
-        <f t="shared" si="27"/>
+        <f>BY45/B45*100000</f>
         <v>77121.850148553523</v>
       </c>
     </row>
@@ -10631,26 +10631,26 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="AH46">
         <v>378480</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>4187.0112027055584</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3647.7488902980344</v>
       </c>
       <c r="AK46" cm="1">
@@ -10727,39 +10727,39 @@
         <v>0.2642147537518495</v>
       </c>
       <c r="BI46" s="3">
+        <f>SUM(AK46:AV46)</f>
+        <v>7.3980131050517866</v>
+      </c>
+      <c r="BJ46" s="3">
+        <f>SUM(AW46:BH46)</f>
+        <v>8.4548721200591839</v>
+      </c>
+      <c r="BK46" s="3">
         <f t="shared" si="5"/>
-        <v>7.3980131050517866</v>
-      </c>
-      <c r="BJ46" s="3">
-        <f t="shared" si="6"/>
-        <v>8.4548721200591839</v>
-      </c>
-      <c r="BK46" s="3">
-        <f t="shared" si="7"/>
         <v>15.85288522511097</v>
       </c>
       <c r="BM46">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK46:AV46)</f>
         <v>0.61650109208764892</v>
       </c>
       <c r="BN46">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW46:BH46)</f>
         <v>0.70457267667159862</v>
       </c>
       <c r="BO46">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK46:BH46)</f>
         <v>0.66053688437962366</v>
       </c>
       <c r="BQ46">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK46:AV46)</f>
         <v>0.52842950750369899</v>
       </c>
       <c r="BR46">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW46:BH46)</f>
         <v>0.52842950750369899</v>
       </c>
       <c r="BS46">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK46:BH46)</f>
         <v>0.52842950750369899</v>
       </c>
       <c r="BU46" s="3">
@@ -10769,14 +10769,14 @@
         <v>308812</v>
       </c>
       <c r="BX46" s="24">
-        <f t="shared" si="26"/>
+        <f>BW46/B46*100000</f>
         <v>81592.686535616143</v>
       </c>
       <c r="BY46">
         <v>314691</v>
       </c>
       <c r="BZ46" s="24">
-        <f t="shared" si="27"/>
+        <f>BY46/B46*100000</f>
         <v>83146.005072923275</v>
       </c>
     </row>
@@ -10863,26 +10863,26 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="AH47">
         <v>235991</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>3293.3459326838733</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3515.8120436796316</v>
       </c>
       <c r="AK47" cm="1">
@@ -10959,39 +10959,39 @@
         <v>0.42374497332525396</v>
       </c>
       <c r="BI47" s="3">
+        <f>SUM(AK47:AV47)</f>
+        <v>18.221033852985919</v>
+      </c>
+      <c r="BJ47" s="3">
+        <f>SUM(AW47:BH47)</f>
+        <v>9.7461343864808416</v>
+      </c>
+      <c r="BK47" s="3">
         <f t="shared" si="5"/>
-        <v>18.221033852985919</v>
-      </c>
-      <c r="BJ47" s="3">
-        <f t="shared" si="6"/>
-        <v>9.7461343864808416</v>
-      </c>
-      <c r="BK47" s="3">
-        <f t="shared" si="7"/>
         <v>27.967168239466758</v>
       </c>
       <c r="BM47">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK47:AV47)</f>
         <v>1.5184194877488266</v>
       </c>
       <c r="BN47">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW47:BH47)</f>
         <v>0.8121778655400701</v>
       </c>
       <c r="BO47">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK47:BH47)</f>
         <v>1.1652986766444482</v>
       </c>
       <c r="BQ47">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK47:AV47)</f>
         <v>1.2712349199757618</v>
       </c>
       <c r="BR47">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW47:BH47)</f>
         <v>0.63561745998788099</v>
       </c>
       <c r="BS47">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK47:BH47)</f>
         <v>0.84748994665050792</v>
       </c>
       <c r="BU47" s="3">
@@ -11001,14 +11001,14 @@
         <v>195340</v>
       </c>
       <c r="BX47" s="24">
-        <f t="shared" si="26"/>
+        <f>BW47/B47*100000</f>
         <v>82774.343089355112</v>
       </c>
       <c r="BY47">
         <v>192124</v>
       </c>
       <c r="BZ47" s="24">
-        <f t="shared" si="27"/>
+        <f>BY47/B47*100000</f>
         <v>81411.579255141085</v>
       </c>
     </row>
@@ -11021,119 +11021,119 @@
         <v>37142687</v>
       </c>
       <c r="AI48" s="16">
-        <f t="shared" ref="AI48:BK48" si="28">SUM(AI27:AI28)</f>
+        <f t="shared" ref="AI48:BK48" si="16">SUM(AI27:AI28)</f>
         <v>10381.244980529142</v>
       </c>
       <c r="AJ48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>9898.2115344266495</v>
       </c>
       <c r="AK48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.4341525348151518</v>
       </c>
       <c r="AL48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.2918469545817657</v>
       </c>
       <c r="AM48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.100276854944338</v>
       </c>
       <c r="AN48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.4204154415697958</v>
       </c>
       <c r="AO48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.4013690976458353</v>
       </c>
       <c r="AP48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.8094250810415708</v>
       </c>
       <c r="AQ48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.4570666764248128</v>
       </c>
       <c r="AR48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.5982484479618679</v>
       </c>
       <c r="AS48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.0566927594579765</v>
       </c>
       <c r="AT48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.8887256189658577</v>
       </c>
       <c r="AU48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.5876333762643602</v>
       </c>
       <c r="AV48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.390193836430013</v>
       </c>
       <c r="AW48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.7627189640073611</v>
       </c>
       <c r="AX48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.0284693671697105</v>
       </c>
       <c r="AY48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.7654663826564321</v>
       </c>
       <c r="AZ48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.5405526563313732</v>
       </c>
       <c r="BA48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.4526352595610956</v>
       </c>
       <c r="BB48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.7132654283240798</v>
       </c>
       <c r="BC48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.4938465392971634</v>
       </c>
       <c r="BD48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>0.86818429310649026</v>
       </c>
       <c r="BE48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.5542897495767289</v>
       </c>
       <c r="BF48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.4879770991002437</v>
       </c>
       <c r="BG48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BH48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>1.638710521900381</v>
       </c>
       <c r="BI48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>22.436046680103345</v>
       </c>
       <c r="BJ48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>17.306116261031057</v>
       </c>
       <c r="BK48" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>39.742162941134403</v>
       </c>
       <c r="BU48" s="17">
@@ -11149,131 +11149,131 @@
         <v>1145173.8999999999</v>
       </c>
       <c r="AI49" s="16">
-        <f t="shared" ref="AI49:BO49" si="29">AVERAGE(AI28:AI47)</f>
+        <f t="shared" ref="AI49:BO49" si="17">AVERAGE(AI28:AI47)</f>
         <v>4083.7530552865746</v>
       </c>
       <c r="AJ49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>3822.5169161802419</v>
       </c>
       <c r="AK49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.061131687181075</v>
       </c>
       <c r="AL49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.97475917927464584</v>
       </c>
       <c r="AM49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.1583382823928865</v>
       </c>
       <c r="AN49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.97128652609946331</v>
       </c>
       <c r="AO49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.98485106263178945</v>
       </c>
       <c r="AP49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0793363226580661</v>
       </c>
       <c r="AQ49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.3344523475537913</v>
       </c>
       <c r="AR49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0073754340223193</v>
       </c>
       <c r="AS49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.3198115023300316</v>
       </c>
       <c r="AT49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0097185857143713</v>
       </c>
       <c r="AU49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.3028742290098856</v>
       </c>
       <c r="AV49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0466761640614874</v>
       </c>
       <c r="AW49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.3318557831210829</v>
       </c>
       <c r="AX49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.1774801202961063</v>
       </c>
       <c r="AY49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.2238464914339082</v>
       </c>
       <c r="AZ49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.1043890733917903</v>
       </c>
       <c r="BA49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.72947575750951521</v>
       </c>
       <c r="BB49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.067568148226977</v>
       </c>
       <c r="BC49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0178489726510502</v>
       </c>
       <c r="BD49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.65524416442176669</v>
       </c>
       <c r="BE49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.92031840845875545</v>
       </c>
       <c r="BF49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.89515620791815709</v>
       </c>
       <c r="BG49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.93267899438098512</v>
       </c>
       <c r="BI49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>13.25061132292981</v>
       </c>
       <c r="BJ49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>11.05586212181009</v>
       </c>
       <c r="BK49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>24.306473444739908</v>
       </c>
       <c r="BM49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.104217610244151</v>
       </c>
       <c r="BN49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>0.92132184348417479</v>
       </c>
       <c r="BO49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>1.0127697268641627</v>
       </c>
       <c r="BU49" s="17">
@@ -11496,39 +11496,39 @@
         <v>20.416067981247881</v>
       </c>
       <c r="BI51" s="23">
+        <f>SUM(AK51:AV51)</f>
+        <v>332.66019744818658</v>
+      </c>
+      <c r="BJ51" s="23">
+        <f>SUM(AW51:BH51)</f>
+        <v>273.96984026672823</v>
+      </c>
+      <c r="BK51" s="23">
         <f t="shared" si="5"/>
-        <v>332.66019744818658</v>
-      </c>
-      <c r="BJ51" s="23">
-        <f t="shared" si="6"/>
-        <v>273.96984026672823</v>
-      </c>
-      <c r="BK51" s="23">
-        <f t="shared" si="7"/>
         <v>606.63003771491481</v>
       </c>
       <c r="BM51" s="22">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK51:AV51)</f>
         <v>27.721683120682215</v>
       </c>
       <c r="BN51" s="22">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW51:BH51)</f>
         <v>22.830820022227353</v>
       </c>
       <c r="BO51" s="22">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK51:BH51)</f>
         <v>25.276251571454782</v>
       </c>
       <c r="BQ51" s="22">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK51:AV51)</f>
         <v>27.736564971698016</v>
       </c>
       <c r="BR51" s="22">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW51:BH51)</f>
         <v>24.747373481508582</v>
       </c>
       <c r="BS51" s="22">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK51:BH51)</f>
         <v>26.735130874111576</v>
       </c>
       <c r="BU51" s="23">
@@ -11632,26 +11632,26 @@
         <v>106</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" ref="AC52:AC71" si="30">SUM(E52:P52)</f>
+        <f t="shared" ref="AC52:AC71" si="18">SUM(E52:P52)</f>
         <v>1810</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" ref="AD52:AD71" si="31">SUM(Q52:AB52)</f>
+        <f t="shared" ref="AD52:AD71" si="19">SUM(Q52:AB52)</f>
         <v>1446</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" ref="AE52:AE71" si="32">SUM(AC52:AD52)</f>
+        <f t="shared" ref="AE52:AE71" si="20">SUM(AC52:AD52)</f>
         <v>3256</v>
       </c>
       <c r="AH52">
         <v>744885</v>
       </c>
       <c r="AI52">
-        <f t="shared" ref="AI52:AI71" si="33">C52/B52*100000</f>
+        <f t="shared" ref="AI52:AI71" si="21">C52/B52*100000</f>
         <v>5891.9162018298121</v>
       </c>
       <c r="AJ52">
-        <f t="shared" ref="AJ52:AJ71" si="34">D52/B52*100000</f>
+        <f t="shared" ref="AJ52:AJ71" si="22">D52/B52*100000</f>
         <v>5794.9884881558892</v>
       </c>
       <c r="AK52" cm="1">
@@ -11728,39 +11728,39 @@
         <v>14.230384556005289</v>
       </c>
       <c r="BI52" s="3">
+        <f>SUM(AK52:AV52)</f>
+        <v>242.99052873933562</v>
+      </c>
+      <c r="BJ52" s="3">
+        <f>SUM(AW52:BH52)</f>
+        <v>194.12392516965704</v>
+      </c>
+      <c r="BK52" s="3">
         <f t="shared" si="5"/>
-        <v>242.99052873933562</v>
-      </c>
-      <c r="BJ52" s="3">
-        <f t="shared" si="6"/>
-        <v>194.12392516965704</v>
-      </c>
-      <c r="BK52" s="3">
-        <f t="shared" si="7"/>
         <v>437.11445390899269</v>
       </c>
       <c r="BM52">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK52:AV52)</f>
         <v>20.249210728277969</v>
       </c>
       <c r="BN52">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW52:BH52)</f>
         <v>16.176993764138086</v>
       </c>
       <c r="BO52">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK52:BH52)</f>
         <v>18.213102246208027</v>
       </c>
       <c r="BQ52">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK52:AV52)</f>
         <v>20.741456734932239</v>
       </c>
       <c r="BR52">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW52:BH52)</f>
         <v>17.922229605912321</v>
       </c>
       <c r="BS52">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK52:BH52)</f>
         <v>19.398967625875134</v>
       </c>
       <c r="BU52" s="3">
@@ -11770,14 +11770,14 @@
         <v>519016</v>
       </c>
       <c r="BX52" s="24">
-        <f t="shared" ref="BX52:BX71" si="35">BW52/B52*100000</f>
+        <f>BW52/B52*100000</f>
         <v>69677.332742638115</v>
       </c>
       <c r="BY52">
         <v>524562</v>
       </c>
       <c r="BZ52" s="24">
-        <f t="shared" ref="BZ52:BZ71" si="36">BY52/B52*100000</f>
+        <f>BY52/B52*100000</f>
         <v>70421.877202521195</v>
       </c>
     </row>
@@ -11864,26 +11864,26 @@
         <v>104</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>1769</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1462</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>3231</v>
       </c>
       <c r="AH53">
         <v>497473</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>2929.4052139513101</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>2240.1215744372057</v>
       </c>
       <c r="AK53" cm="1">
@@ -11960,39 +11960,39 @@
         <v>20.905657191445567</v>
       </c>
       <c r="BI53" s="3">
+        <f>SUM(AK53:AV53)</f>
+        <v>355.59718818910773</v>
+      </c>
+      <c r="BJ53" s="3">
+        <f>SUM(AW53:BH53)</f>
+        <v>293.88529628743674</v>
+      </c>
+      <c r="BK53" s="3">
         <f t="shared" si="5"/>
-        <v>355.59718818910773</v>
-      </c>
-      <c r="BJ53" s="3">
-        <f t="shared" si="6"/>
-        <v>293.88529628743674</v>
-      </c>
-      <c r="BK53" s="3">
-        <f t="shared" si="7"/>
         <v>649.48248447654441</v>
       </c>
       <c r="BM53">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK53:AV53)</f>
         <v>29.633099015758976</v>
       </c>
       <c r="BN53">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW53:BH53)</f>
         <v>24.490441357286397</v>
       </c>
       <c r="BO53">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK53:BH53)</f>
         <v>27.061770186522683</v>
       </c>
       <c r="BQ53">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK53:AV53)</f>
         <v>29.147310507303914</v>
       </c>
       <c r="BR53">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW53:BH53)</f>
         <v>27.137151161972611</v>
       </c>
       <c r="BS53">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK53:BH53)</f>
         <v>28.142230834638262</v>
       </c>
       <c r="BU53" s="3">
@@ -12002,14 +12002,14 @@
         <v>399518</v>
       </c>
       <c r="BX53" s="24">
-        <f t="shared" si="35"/>
+        <f>BW53/B53*100000</f>
         <v>80309.484132807207</v>
       </c>
       <c r="BY53">
         <v>409848</v>
       </c>
       <c r="BZ53" s="24">
-        <f t="shared" si="36"/>
+        <f>BY53/B53*100000</f>
         <v>82385.978736534453</v>
       </c>
     </row>
@@ -12096,26 +12096,26 @@
         <v>273</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>4182</v>
       </c>
       <c r="AD54" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>3368</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>7550</v>
       </c>
       <c r="AH54">
         <v>872147</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>6038.660913813841</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>5670.0303962520074</v>
       </c>
       <c r="AK54" cm="1">
@@ -12192,39 +12192,39 @@
         <v>31.3020626110048</v>
       </c>
       <c r="BI54" s="3">
+        <f>SUM(AK54:AV54)</f>
+        <v>479.50632175539209</v>
+      </c>
+      <c r="BJ54" s="3">
+        <f>SUM(AW54:BH54)</f>
+        <v>386.17343177239616</v>
+      </c>
+      <c r="BK54" s="3">
         <f t="shared" si="5"/>
-        <v>479.50632175539209</v>
-      </c>
-      <c r="BJ54" s="3">
-        <f t="shared" si="6"/>
-        <v>386.17343177239616</v>
-      </c>
-      <c r="BK54" s="3">
-        <f t="shared" si="7"/>
         <v>865.67975352778831</v>
       </c>
       <c r="BM54">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK54:AV54)</f>
         <v>39.958860146282674</v>
       </c>
       <c r="BN54">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW54:BH54)</f>
         <v>32.181119314366349</v>
       </c>
       <c r="BO54">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK54:BH54)</f>
         <v>36.069989730324508</v>
       </c>
       <c r="BQ54">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK54:AV54)</f>
         <v>39.844200576278993</v>
       </c>
       <c r="BR54">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW54:BH54)</f>
         <v>33.59525401107841</v>
       </c>
       <c r="BS54">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK54:BH54)</f>
         <v>38.124307026223789</v>
       </c>
       <c r="BU54" s="3">
@@ -12234,14 +12234,14 @@
         <v>623047</v>
       </c>
       <c r="BX54" s="24">
-        <f t="shared" si="35"/>
+        <f>BW54/B54*100000</f>
         <v>71438.301112083165</v>
       </c>
       <c r="BY54">
         <v>624264</v>
       </c>
       <c r="BZ54" s="24">
-        <f t="shared" si="36"/>
+        <f>BY54/B54*100000</f>
         <v>71577.841808777652</v>
       </c>
     </row>
@@ -12328,26 +12328,26 @@
         <v>319</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>5810</v>
       </c>
       <c r="AD55" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>4587</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>10397</v>
       </c>
       <c r="AH55">
         <v>1758489</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>5201.8522720358214</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>4992.4679653952908</v>
       </c>
       <c r="AK55" cm="1">
@@ -12424,39 +12424,39 @@
         <v>18.140574095146459</v>
       </c>
       <c r="BI55" s="3">
+        <f>SUM(AK55:AV55)</f>
+        <v>330.39728994608447</v>
+      </c>
+      <c r="BJ55" s="3">
+        <f>SUM(AW55:BH55)</f>
+        <v>260.84894474745079</v>
+      </c>
+      <c r="BK55" s="3">
         <f t="shared" si="5"/>
-        <v>330.39728994608447</v>
-      </c>
-      <c r="BJ55" s="3">
-        <f t="shared" si="6"/>
-        <v>260.84894474745079</v>
-      </c>
-      <c r="BK55" s="3">
-        <f t="shared" si="7"/>
         <v>591.24623469353526</v>
       </c>
       <c r="BM55">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK55:AV55)</f>
         <v>27.533107495507039</v>
       </c>
       <c r="BN55">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW55:BH55)</f>
         <v>21.737412062287564</v>
       </c>
       <c r="BO55">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK55:BH55)</f>
         <v>24.635259778897296</v>
       </c>
       <c r="BQ55">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK55:AV55)</f>
         <v>27.864831682199892</v>
       </c>
       <c r="BR55">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW55:BH55)</f>
         <v>22.633067366358276</v>
       </c>
       <c r="BS55">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK55:BH55)</f>
         <v>26.699058111822136</v>
       </c>
       <c r="BU55" s="3">
@@ -12466,14 +12466,14 @@
         <v>1248835</v>
       </c>
       <c r="BX55" s="24">
-        <f t="shared" si="35"/>
+        <f>BW55/B55*100000</f>
         <v>71017.504232326741</v>
       </c>
       <c r="BY55">
         <v>1267220</v>
       </c>
       <c r="BZ55" s="24">
-        <f t="shared" si="36"/>
+        <f>BY55/B55*100000</f>
         <v>72063.004090443559</v>
       </c>
     </row>
@@ -12560,26 +12560,26 @@
         <v>171</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>2434</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1981</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>4415</v>
       </c>
       <c r="AH56">
         <v>564866</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>2745.0758232926037</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>2847.5780096518465</v>
       </c>
       <c r="AK56" cm="1">
@@ -12656,39 +12656,39 @@
         <v>30.272666437703808</v>
       </c>
       <c r="BI56" s="3">
+        <f>SUM(AK56:AV56)</f>
+        <v>430.89865561035708</v>
+      </c>
+      <c r="BJ56" s="3">
+        <f>SUM(AW56:BH56)</f>
+        <v>350.70264452100145</v>
+      </c>
+      <c r="BK56" s="3">
         <f t="shared" si="5"/>
-        <v>430.89865561035708</v>
-      </c>
-      <c r="BJ56" s="3">
-        <f t="shared" si="6"/>
-        <v>350.70264452100145</v>
-      </c>
-      <c r="BK56" s="3">
-        <f t="shared" si="7"/>
         <v>781.60130013135858</v>
       </c>
       <c r="BM56">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK56:AV56)</f>
         <v>35.90822130086309</v>
       </c>
       <c r="BN56">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW56:BH56)</f>
         <v>29.225220376750119</v>
       </c>
       <c r="BO56">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK56:BH56)</f>
         <v>32.56672083880661</v>
       </c>
       <c r="BQ56">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK56:AV56)</f>
         <v>36.380309666363345</v>
       </c>
       <c r="BR56">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW56:BH56)</f>
         <v>32.220030945392359</v>
       </c>
       <c r="BS56">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK56:BH56)</f>
         <v>34.07887888454961</v>
       </c>
       <c r="BU56" s="3">
@@ -12698,14 +12698,14 @@
         <v>442355</v>
       </c>
       <c r="BX56" s="24">
-        <f t="shared" si="35"/>
+        <f>BW56/B56*100000</f>
         <v>78311.493345324372</v>
       </c>
       <c r="BY56">
         <v>443995</v>
       </c>
       <c r="BZ56" s="24">
-        <f t="shared" si="36"/>
+        <f>BY56/B56*100000</f>
         <v>78601.827690107035</v>
       </c>
     </row>
@@ -12792,26 +12792,26 @@
         <v>199</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>3926</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>3047</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6973</v>
       </c>
       <c r="AH57">
         <v>914431</v>
       </c>
       <c r="AI57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3561.8871188750163</v>
       </c>
       <c r="AJ57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3338.4694963315987</v>
       </c>
       <c r="AK57" cm="1">
@@ -12888,39 +12888,39 @@
         <v>21.76216685567309</v>
       </c>
       <c r="BI57" s="3">
+        <f>SUM(AK57:AV57)</f>
+        <v>429.33802550438469</v>
+      </c>
+      <c r="BJ57" s="3">
+        <f>SUM(AW57:BH57)</f>
+        <v>333.21267542329599</v>
+      </c>
+      <c r="BK57" s="3">
         <f t="shared" si="5"/>
-        <v>429.33802550438469</v>
-      </c>
-      <c r="BJ57" s="3">
-        <f t="shared" si="6"/>
-        <v>333.21267542329599</v>
-      </c>
-      <c r="BK57" s="3">
-        <f t="shared" si="7"/>
         <v>762.55070092768074</v>
       </c>
       <c r="BM57">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK57:AV57)</f>
         <v>35.778168792032055</v>
       </c>
       <c r="BN57">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW57:BH57)</f>
         <v>27.767722951941334</v>
       </c>
       <c r="BO57">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK57:BH57)</f>
         <v>31.772945871986696</v>
       </c>
       <c r="BQ57">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK57:AV57)</f>
         <v>33.95554175219344</v>
       </c>
       <c r="BR57">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW57:BH57)</f>
         <v>29.909309723751708</v>
       </c>
       <c r="BS57">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK57:BH57)</f>
         <v>31.54967405960646</v>
       </c>
       <c r="BU57" s="3">
@@ -12930,14 +12930,14 @@
         <v>661181</v>
       </c>
       <c r="BX57" s="24">
-        <f t="shared" si="35"/>
+        <f>BW57/B57*100000</f>
         <v>72305.18212965221</v>
       </c>
       <c r="BY57">
         <v>687784</v>
       </c>
       <c r="BZ57" s="24">
-        <f t="shared" si="36"/>
+        <f>BY57/B57*100000</f>
         <v>75214.422958101815</v>
       </c>
     </row>
@@ -13024,26 +13024,26 @@
         <v>127</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>2212</v>
       </c>
       <c r="AD58" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1728</v>
       </c>
       <c r="AE58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>3940</v>
       </c>
       <c r="AH58">
         <v>1363276</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>4291.5007672694301</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3554.5260094067526</v>
       </c>
       <c r="AK58" cm="1">
@@ -13120,39 +13120,39 @@
         <v>9.3157951874748779</v>
       </c>
       <c r="BI58" s="3">
+        <f>SUM(AK58:AV58)</f>
+        <v>162.25621224168839</v>
+      </c>
+      <c r="BJ58" s="3">
+        <f>SUM(AW58:BH58)</f>
+        <v>126.75349672406762</v>
+      </c>
+      <c r="BK58" s="3">
         <f t="shared" si="5"/>
-        <v>162.25621224168839</v>
-      </c>
-      <c r="BJ58" s="3">
-        <f t="shared" si="6"/>
-        <v>126.75349672406762</v>
-      </c>
-      <c r="BK58" s="3">
-        <f t="shared" si="7"/>
         <v>289.00970896575598</v>
       </c>
       <c r="BM58">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK58:AV58)</f>
         <v>13.521351020140699</v>
       </c>
       <c r="BN58">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW58:BH58)</f>
         <v>10.562791393672301</v>
       </c>
       <c r="BO58">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK58:BH58)</f>
         <v>12.042071206906499</v>
       </c>
       <c r="BQ58">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK58:AV58)</f>
         <v>13.753634627177476</v>
       </c>
       <c r="BR58">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW58:BH58)</f>
         <v>10.526115034666494</v>
       </c>
       <c r="BS58">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK58:BH58)</f>
         <v>12.61666749799747</v>
       </c>
       <c r="BU58" s="3">
@@ -13162,14 +13162,14 @@
         <v>1017449</v>
       </c>
       <c r="BX58" s="24">
-        <f t="shared" si="35"/>
+        <f>BW58/B58*100000</f>
         <v>74632.649588197848</v>
       </c>
       <c r="BY58">
         <v>1039548</v>
       </c>
       <c r="BZ58" s="24">
-        <f t="shared" si="36"/>
+        <f>BY58/B58*100000</f>
         <v>76253.671303536481</v>
       </c>
     </row>
@@ -13256,26 +13256,26 @@
         <v>121</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>1790</v>
       </c>
       <c r="AD59" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1519</v>
       </c>
       <c r="AE59" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>3309</v>
       </c>
       <c r="AH59">
         <v>1116792</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3849.8664030544633</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3176.1509752935194</v>
       </c>
       <c r="AK59" cm="1">
@@ -13352,39 +13352,39 @@
         <v>10.83460483241284</v>
       </c>
       <c r="BI59" s="3">
+        <f>SUM(AK59:AV59)</f>
+        <v>160.28051776875193</v>
+      </c>
+      <c r="BJ59" s="3">
+        <f>SUM(AW59:BH59)</f>
+        <v>136.01458463169504</v>
+      </c>
+      <c r="BK59" s="3">
         <f t="shared" si="5"/>
-        <v>160.28051776875193</v>
-      </c>
-      <c r="BJ59" s="3">
-        <f t="shared" si="6"/>
-        <v>136.01458463169504</v>
-      </c>
-      <c r="BK59" s="3">
-        <f t="shared" si="7"/>
         <v>296.29510240044698</v>
       </c>
       <c r="BM59">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK59:AV59)</f>
         <v>13.356709814062661</v>
       </c>
       <c r="BN59">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW59:BH59)</f>
         <v>11.33454871930792</v>
       </c>
       <c r="BO59">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK59:BH59)</f>
         <v>12.345629266685293</v>
       </c>
       <c r="BQ59">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK59:AV59)</f>
         <v>13.565641587690457</v>
       </c>
       <c r="BR59">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW59:BH59)</f>
         <v>11.730026719389109</v>
       </c>
       <c r="BS59">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK59:BH59)</f>
         <v>12.625448606365374</v>
       </c>
       <c r="BU59" s="3">
@@ -13394,14 +13394,14 @@
         <v>852225</v>
       </c>
       <c r="BX59" s="24">
-        <f t="shared" si="35"/>
+        <f>BW59/B59*100000</f>
         <v>76310.091762834971</v>
       </c>
       <c r="BY59">
         <v>868678</v>
       </c>
       <c r="BZ59" s="24">
-        <f t="shared" si="36"/>
+        <f>BY59/B59*100000</f>
         <v>77783.329393477034</v>
       </c>
     </row>
@@ -13488,26 +13488,26 @@
         <v>87</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>1464</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1323</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>2787</v>
       </c>
       <c r="AH60">
         <v>443129</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3631.8995145883027</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>4425.1222555960003</v>
       </c>
       <c r="AK60" cm="1">
@@ -13584,39 +13584,39 @@
         <v>19.633109094642869</v>
       </c>
       <c r="BI60" s="3">
+        <f>SUM(AK60:AV60)</f>
+        <v>330.37783579950758</v>
+      </c>
+      <c r="BJ60" s="3">
+        <f>SUM(AW60:BH60)</f>
+        <v>298.55865899094846</v>
+      </c>
+      <c r="BK60" s="3">
         <f t="shared" si="5"/>
-        <v>330.37783579950758</v>
-      </c>
-      <c r="BJ60" s="3">
-        <f t="shared" si="6"/>
-        <v>298.55865899094846</v>
-      </c>
-      <c r="BK60" s="3">
-        <f t="shared" si="7"/>
         <v>628.93649479045598</v>
       </c>
       <c r="BM60">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK60:AV60)</f>
         <v>27.531486316625632</v>
       </c>
       <c r="BN60">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW60:BH60)</f>
         <v>24.879888249245706</v>
       </c>
       <c r="BO60">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK60:BH60)</f>
         <v>26.205687282935671</v>
       </c>
       <c r="BQ60">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK60:AV60)</f>
         <v>27.192984435683513</v>
       </c>
       <c r="BR60">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW60:BH60)</f>
         <v>27.531486316625632</v>
       </c>
       <c r="BS60">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK60:BH60)</f>
         <v>27.41865235631159</v>
       </c>
       <c r="BU60" s="3">
@@ -13626,14 +13626,14 @@
         <v>346350</v>
       </c>
       <c r="BX60" s="24">
-        <f t="shared" si="35"/>
+        <f>BW60/B60*100000</f>
         <v>78160.084309535145</v>
       </c>
       <c r="BY60">
         <v>338563</v>
       </c>
       <c r="BZ60" s="24">
-        <f t="shared" si="36"/>
+        <f>BY60/B60*100000</f>
         <v>76402.808211604293</v>
       </c>
     </row>
@@ -13720,26 +13720,26 @@
         <v>76</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>872</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>728</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>1600</v>
       </c>
       <c r="AH61">
         <v>341955</v>
       </c>
       <c r="AI61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>1827.1409980845431</v>
       </c>
       <c r="AJ61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>1977.4531736632014</v>
       </c>
       <c r="AK61" cm="1">
@@ -13816,39 +13816,39 @@
         <v>22.225146583614801</v>
       </c>
       <c r="BI61" s="3">
+        <f>SUM(AK61:AV61)</f>
+        <v>255.00431343305405</v>
+      </c>
+      <c r="BJ61" s="3">
+        <f>SUM(AW61:BH61)</f>
+        <v>212.89350937988917</v>
+      </c>
+      <c r="BK61" s="3">
         <f t="shared" si="5"/>
-        <v>255.00431343305405</v>
-      </c>
-      <c r="BJ61" s="3">
-        <f t="shared" si="6"/>
-        <v>212.89350937988917</v>
-      </c>
-      <c r="BK61" s="3">
-        <f t="shared" si="7"/>
         <v>467.89782281294322</v>
       </c>
       <c r="BM61">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK61:AV61)</f>
         <v>21.250359452754505</v>
       </c>
       <c r="BN61">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW61:BH61)</f>
         <v>17.741125781657431</v>
       </c>
       <c r="BO61">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK61:BH61)</f>
         <v>19.49574261720597</v>
       </c>
       <c r="BQ61">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK61:AV61)</f>
         <v>21.055402026582446</v>
       </c>
       <c r="BR61">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW61:BH61)</f>
         <v>18.862130982146773</v>
       </c>
       <c r="BS61">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK61:BH61)</f>
         <v>19.88565746955009</v>
       </c>
       <c r="BU61" s="3">
@@ -13858,14 +13858,14 @@
         <v>279239</v>
       </c>
       <c r="BX61" s="24">
-        <f t="shared" si="35"/>
+        <f>BW61/B61*100000</f>
         <v>81659.575090289654</v>
       </c>
       <c r="BY61">
         <v>274681</v>
       </c>
       <c r="BZ61" s="24">
-        <f t="shared" si="36"/>
+        <f>BY61/B61*100000</f>
         <v>80326.651167551288</v>
       </c>
     </row>
@@ -13952,26 +13952,26 @@
         <v>692</v>
       </c>
       <c r="AC62" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>6741</v>
       </c>
       <c r="AD62" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>6879</v>
       </c>
       <c r="AE62" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>13620</v>
       </c>
       <c r="AH62">
         <v>1773203</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>6249.7074503032081</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>5689.4783056423885</v>
       </c>
       <c r="AK62" cm="1">
@@ -14048,39 +14048,39 @@
         <v>39.025424612974376</v>
       </c>
       <c r="BI62" s="3">
+        <f>SUM(AK62:AV62)</f>
+        <v>380.15951924286168</v>
+      </c>
+      <c r="BJ62" s="3">
+        <f>SUM(AW62:BH62)</f>
+        <v>387.94204611654732</v>
+      </c>
+      <c r="BK62" s="3">
         <f t="shared" si="5"/>
-        <v>380.15951924286168</v>
-      </c>
-      <c r="BJ62" s="3">
-        <f t="shared" si="6"/>
-        <v>387.94204611654732</v>
-      </c>
-      <c r="BK62" s="3">
-        <f t="shared" si="7"/>
         <v>768.10156535940905</v>
       </c>
       <c r="BM62">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK62:AV62)</f>
         <v>31.679959936905139</v>
       </c>
       <c r="BN62">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW62:BH62)</f>
         <v>32.32850384304561</v>
       </c>
       <c r="BO62">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK62:BH62)</f>
         <v>32.004231889975372</v>
       </c>
       <c r="BQ62">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK62:AV62)</f>
         <v>31.496675789517614</v>
       </c>
       <c r="BR62">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW62:BH62)</f>
         <v>36.515841671822123</v>
       </c>
       <c r="BS62">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK62:BH62)</f>
         <v>32.286207501340797</v>
       </c>
       <c r="BU62" s="3">
@@ -14090,14 +14090,14 @@
         <v>1163874</v>
       </c>
       <c r="BX62" s="24">
-        <f t="shared" si="35"/>
+        <f>BW62/B62*100000</f>
         <v>65636.816540463784</v>
       </c>
       <c r="BY62">
         <v>1171370</v>
       </c>
       <c r="BZ62" s="24">
-        <f t="shared" si="36"/>
+        <f>BY62/B62*100000</f>
         <v>66059.554377022825</v>
       </c>
     </row>
@@ -14184,26 +14184,26 @@
         <v>205</v>
       </c>
       <c r="AC63" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>3148</v>
       </c>
       <c r="AD63" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>2215</v>
       </c>
       <c r="AE63" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>5363</v>
       </c>
       <c r="AH63">
         <v>1095125</v>
       </c>
       <c r="AI63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>4168.1086633945897</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3525.259673553247</v>
       </c>
       <c r="AK63" cm="1">
@@ -14280,39 +14280,39 @@
         <v>18.719324278050451</v>
       </c>
       <c r="BI63" s="3">
+        <f>SUM(AK63:AV63)</f>
+        <v>287.45576988928212</v>
+      </c>
+      <c r="BJ63" s="3">
+        <f>SUM(AW63:BH63)</f>
+        <v>202.26001597991097</v>
+      </c>
+      <c r="BK63" s="3">
         <f t="shared" si="5"/>
-        <v>287.45576988928212</v>
-      </c>
-      <c r="BJ63" s="3">
-        <f t="shared" si="6"/>
-        <v>202.26001597991097</v>
-      </c>
-      <c r="BK63" s="3">
-        <f t="shared" si="7"/>
         <v>489.7157858691931</v>
       </c>
       <c r="BM63">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK63:AV63)</f>
         <v>23.95464749077351</v>
       </c>
       <c r="BN63">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW63:BH63)</f>
         <v>16.855001331659249</v>
       </c>
       <c r="BO63">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK63:BH63)</f>
         <v>20.404824411216381</v>
       </c>
       <c r="BQ63">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK63:AV63)</f>
         <v>23.558954457253741</v>
       </c>
       <c r="BR63">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW63:BH63)</f>
         <v>16.847391850245408</v>
       </c>
       <c r="BS63">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK63:BH63)</f>
         <v>21.550051363999543</v>
       </c>
       <c r="BU63" s="3">
@@ -14322,14 +14322,14 @@
         <v>859302</v>
       </c>
       <c r="BX63" s="24">
-        <f t="shared" si="35"/>
+        <f>BW63/B63*100000</f>
         <v>78466.111174523452</v>
       </c>
       <c r="BY63">
         <v>872190</v>
       </c>
       <c r="BZ63" s="24">
-        <f t="shared" si="36"/>
+        <f>BY63/B63*100000</f>
         <v>79642.963132062549</v>
       </c>
     </row>
@@ -14416,26 +14416,26 @@
         <v>36</v>
       </c>
       <c r="AC64" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>2073</v>
       </c>
       <c r="AD64" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1676</v>
       </c>
       <c r="AE64" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>3749</v>
       </c>
       <c r="AH64">
         <v>730237</v>
       </c>
       <c r="AI64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3719.8882006800536</v>
       </c>
       <c r="AJ64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>2708.4357544194559</v>
       </c>
       <c r="AK64" cm="1">
@@ -14512,39 +14512,39 @@
         <v>4.9299063180857718</v>
       </c>
       <c r="BI64" s="3">
+        <f>SUM(AK64:AV64)</f>
+        <v>283.88043881643904</v>
+      </c>
+      <c r="BJ64" s="3">
+        <f>SUM(AW64:BH64)</f>
+        <v>229.5145274753265</v>
+      </c>
+      <c r="BK64" s="3">
         <f t="shared" si="5"/>
-        <v>283.88043881643904</v>
-      </c>
-      <c r="BJ64" s="3">
-        <f t="shared" si="6"/>
-        <v>229.5145274753265</v>
-      </c>
-      <c r="BK64" s="3">
-        <f t="shared" si="7"/>
         <v>513.39496629176551</v>
       </c>
       <c r="BM64">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK64:AV64)</f>
         <v>23.656703234703254</v>
       </c>
       <c r="BN64">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW64:BH64)</f>
         <v>19.126210622943876</v>
       </c>
       <c r="BO64">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK64:BH64)</f>
         <v>21.391456928823569</v>
       </c>
       <c r="BQ64">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK64:AV64)</f>
         <v>24.718002511513383</v>
       </c>
       <c r="BR64">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW64:BH64)</f>
         <v>21.568340141625253</v>
       </c>
       <c r="BS64">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK64:BH64)</f>
         <v>23.280113168738367</v>
       </c>
       <c r="BU64" s="3">
@@ -14554,14 +14554,14 @@
         <v>586693</v>
       </c>
       <c r="BX64" s="24">
-        <f t="shared" si="35"/>
+        <f>BW64/B64*100000</f>
         <v>80342.820207685989</v>
       </c>
       <c r="BY64">
         <v>606519</v>
       </c>
       <c r="BZ64" s="24">
-        <f t="shared" si="36"/>
+        <f>BY64/B64*100000</f>
         <v>83057.829170529556</v>
       </c>
     </row>
@@ -14648,26 +14648,26 @@
         <v>73</v>
       </c>
       <c r="AC65" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>1310</v>
       </c>
       <c r="AD65" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>999</v>
       </c>
       <c r="AE65" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>2309</v>
       </c>
       <c r="AH65">
         <v>442068</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3454.2197128043649</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3089.5699304179448</v>
       </c>
       <c r="AK65" cm="1">
@@ -14744,39 +14744,39 @@
         <v>16.513296596903643</v>
       </c>
       <c r="BI65" s="3">
+        <f>SUM(AK65:AV65)</f>
+        <v>296.33450057457219</v>
+      </c>
+      <c r="BJ65" s="3">
+        <f>SUM(AW65:BH65)</f>
+        <v>225.98333288091428</v>
+      </c>
+      <c r="BK65" s="3">
         <f t="shared" si="5"/>
-        <v>296.33450057457219</v>
-      </c>
-      <c r="BJ65" s="3">
-        <f t="shared" si="6"/>
-        <v>225.98333288091428</v>
-      </c>
-      <c r="BK65" s="3">
-        <f t="shared" si="7"/>
         <v>522.31783345548649</v>
       </c>
       <c r="BM65">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK65:AV65)</f>
         <v>24.694541714547682</v>
       </c>
       <c r="BN65">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW65:BH65)</f>
         <v>18.831944406742856</v>
       </c>
       <c r="BO65">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK65:BH65)</f>
         <v>21.763243060645269</v>
       </c>
       <c r="BQ65">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK65:AV65)</f>
         <v>24.883049666567135</v>
       </c>
       <c r="BR65">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW65:BH65)</f>
         <v>19.340915877195364</v>
       </c>
       <c r="BS65">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK65:BH65)</f>
         <v>22.394744699910422</v>
       </c>
       <c r="BU65" s="3">
@@ -14786,14 +14786,14 @@
         <v>353328</v>
       </c>
       <c r="BX65" s="24">
-        <f t="shared" si="35"/>
+        <f>BW65/B65*100000</f>
         <v>79926.165205353027</v>
       </c>
       <c r="BY65">
         <v>350639</v>
       </c>
       <c r="BZ65" s="24">
-        <f t="shared" si="36"/>
+        <f>BY65/B65*100000</f>
         <v>79317.887745776665</v>
       </c>
     </row>
@@ -14880,26 +14880,26 @@
         <v>967</v>
       </c>
       <c r="AC66" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>15547</v>
       </c>
       <c r="AD66" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>12566</v>
       </c>
       <c r="AE66" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>28113</v>
       </c>
       <c r="AH66">
         <v>5823490</v>
       </c>
       <c r="AI66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>5215.9615625681508</v>
       </c>
       <c r="AJ66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>4852.4853653049977</v>
       </c>
       <c r="AK66" cm="1">
@@ -14976,39 +14976,39 @@
         <v>16.605162883425574</v>
       </c>
       <c r="BI66" s="3">
+        <f>SUM(AK66:AV66)</f>
+        <v>266.97049363869428</v>
+      </c>
+      <c r="BJ66" s="3">
+        <f>SUM(AW66:BH66)</f>
+        <v>215.78125831760684</v>
+      </c>
+      <c r="BK66" s="3">
         <f t="shared" si="5"/>
-        <v>266.97049363869428</v>
-      </c>
-      <c r="BJ66" s="3">
-        <f t="shared" si="6"/>
-        <v>215.78125831760684</v>
-      </c>
-      <c r="BK66" s="3">
-        <f t="shared" si="7"/>
         <v>482.75175195630112</v>
       </c>
       <c r="BM66">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK66:AV66)</f>
         <v>22.247541136557857</v>
       </c>
       <c r="BN66">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW66:BH66)</f>
         <v>17.981771526467238</v>
       </c>
       <c r="BO66">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK66:BH66)</f>
         <v>20.114656331512546</v>
       </c>
       <c r="BQ66">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK66:AV66)</f>
         <v>21.722369232195813</v>
       </c>
       <c r="BR66">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW66:BH66)</f>
         <v>20.185490144226229</v>
       </c>
       <c r="BS66">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK66:BH66)</f>
         <v>21.207214230641764</v>
       </c>
       <c r="BU66" s="3">
@@ -15018,14 +15018,14 @@
         <v>4289791</v>
       </c>
       <c r="BX66" s="24">
-        <f t="shared" si="35"/>
+        <f>BW66/B66*100000</f>
         <v>73663.576309051787</v>
       </c>
       <c r="BY66">
         <v>4419591</v>
       </c>
       <c r="BZ66" s="24">
-        <f t="shared" si="36"/>
+        <f>BY66/B66*100000</f>
         <v>75892.480282442324</v>
       </c>
     </row>
@@ -15112,26 +15112,26 @@
         <v>164</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>3819</v>
       </c>
       <c r="AD67" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>3208</v>
       </c>
       <c r="AE67" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>7027</v>
       </c>
       <c r="AH67">
         <v>1490187</v>
       </c>
       <c r="AI67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3406.9549660545954</v>
       </c>
       <c r="AJ67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3231.5407395179263</v>
       </c>
       <c r="AK67" cm="1">
@@ -15208,39 +15208,39 @@
         <v>11.005330203524792</v>
       </c>
       <c r="BI67" s="3">
+        <f>SUM(AK67:AV67)</f>
+        <v>256.27656126378776</v>
+      </c>
+      <c r="BJ67" s="3">
+        <f>SUM(AW67:BH67)</f>
+        <v>215.27499568846059</v>
+      </c>
+      <c r="BK67" s="3">
         <f t="shared" si="5"/>
-        <v>256.27656126378776</v>
-      </c>
-      <c r="BJ67" s="3">
-        <f t="shared" si="6"/>
-        <v>215.27499568846059</v>
-      </c>
-      <c r="BK67" s="3">
-        <f t="shared" si="7"/>
         <v>471.55155695224835</v>
       </c>
       <c r="BM67">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AK67:AV67)</f>
         <v>21.356380105315647</v>
       </c>
       <c r="BN67">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW67:BH67)</f>
         <v>17.939582974038384</v>
       </c>
       <c r="BO67">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(AK67:BH67)</f>
         <v>19.647981539677016</v>
       </c>
       <c r="BQ67">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(AK67:AV67)</f>
         <v>20.299465771745425</v>
       </c>
       <c r="BR67">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(AW67:BH67)</f>
         <v>19.997490247868221</v>
       </c>
       <c r="BS67">
-        <f t="shared" si="13"/>
+        <f>MEDIAN(AK67:BH67)</f>
         <v>20.299465771745425</v>
       </c>
       <c r="BU67" s="3">
@@ -15250,14 +15250,14 @@
         <v>1197830</v>
       </c>
       <c r="BX67" s="24">
-        <f t="shared" si="35"/>
+        <f>BW67/B67*100000</f>
         <v>80381.187059073782</v>
       </c>
       <c r="BY67">
         <v>1220144</v>
       </c>
       <c r="BZ67" s="24">
-        <f t="shared" si="36"/>
+        <f>BY67/B67*100000</f>
         <v>81878.583023472893</v>
       </c>
     </row>
@@ -15344,26 +15344,26 @@
         <v>200</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>3670</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>2763</v>
       </c>
       <c r="AE68" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6433</v>
       </c>
       <c r="AH68">
         <v>1213948</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3378.3984157476266</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3460.4447636966329</v>
       </c>
       <c r="AK68" cm="1">
@@ -15440,39 +15440,39 @@
         <v>16.47517027088475</v>
       </c>
       <c r="BI68" s="3">
-        <f t="shared" ref="BI68:BI94" si="37">SUM(AK68:AV68)</f>
+        <f>SUM(AK68:AV68)</f>
         <v>302.31937447073517</v>
       </c>
       <c r="BJ68" s="3">
-        <f t="shared" ref="BJ68:BJ95" si="38">SUM(AW68:BH68)</f>
+        <f>SUM(AW68:BH68)</f>
         <v>227.60447729227286</v>
       </c>
       <c r="BK68" s="3">
-        <f t="shared" ref="BK68:BK95" si="39">SUM(BI68:BJ68)</f>
+        <f t="shared" ref="BK68:BK95" si="23">SUM(BI68:BJ68)</f>
         <v>529.92385176300809</v>
       </c>
       <c r="BM68">
-        <f t="shared" ref="BM68:BM95" si="40">AVERAGE(AK68:AV68)</f>
+        <f>AVERAGE(AK68:AV68)</f>
         <v>25.193281205894596</v>
       </c>
       <c r="BN68">
-        <f t="shared" ref="BN68:BN95" si="41">AVERAGE(AW68:BH68)</f>
+        <f>AVERAGE(AW68:BH68)</f>
         <v>18.967039774356071</v>
       </c>
       <c r="BO68">
-        <f t="shared" ref="BO68:BO95" si="42">AVERAGE(AK68:BH68)</f>
+        <f>AVERAGE(AK68:BH68)</f>
         <v>22.080160490125337</v>
       </c>
       <c r="BQ68">
-        <f t="shared" ref="BQ68:BQ95" si="43">MEDIAN(AK68:AV68)</f>
+        <f>MEDIAN(AK68:AV68)</f>
         <v>24.465627852263854</v>
       </c>
       <c r="BR68">
-        <f t="shared" ref="BR68:BR95" si="44">MEDIAN(AW68:BH68)</f>
+        <f>MEDIAN(AW68:BH68)</f>
         <v>19.811392250738912</v>
       </c>
       <c r="BS68">
-        <f t="shared" ref="BS68:BS95" si="45">MEDIAN(AK68:BH68)</f>
+        <f>MEDIAN(AK68:BH68)</f>
         <v>23.477117636010767</v>
       </c>
       <c r="BU68" s="3">
@@ -15482,14 +15482,14 @@
         <v>987919</v>
       </c>
       <c r="BX68" s="24">
-        <f t="shared" si="35"/>
+        <f>BW68/B68*100000</f>
         <v>81380.668694210952</v>
       </c>
       <c r="BY68">
         <v>983400</v>
       </c>
       <c r="BZ68" s="24">
-        <f t="shared" si="36"/>
+        <f>BY68/B68*100000</f>
         <v>81008.412221940322</v>
       </c>
     </row>
@@ -15576,26 +15576,26 @@
         <v>174</v>
       </c>
       <c r="AC69" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>3852</v>
       </c>
       <c r="AD69" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>2755</v>
       </c>
       <c r="AE69" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6607</v>
       </c>
       <c r="AH69">
         <v>1103306</v>
       </c>
       <c r="AI69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>4632.2597719943515</v>
       </c>
       <c r="AJ69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>4712.6545128912558</v>
       </c>
       <c r="AK69" cm="1">
@@ -15672,39 +15672,39 @@
         <v>15.77078344539049</v>
       </c>
       <c r="BI69" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK69:AV69)</f>
         <v>349.13251627381703</v>
       </c>
       <c r="BJ69" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW69:BH69)</f>
         <v>249.7040712186828</v>
       </c>
       <c r="BK69" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>598.8365874924998</v>
       </c>
       <c r="BM69">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK69:AV69)</f>
         <v>29.094376356151418</v>
       </c>
       <c r="BN69">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW69:BH69)</f>
         <v>20.8086726015569</v>
       </c>
       <c r="BO69">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK69:BH69)</f>
         <v>24.951524478854164</v>
       </c>
       <c r="BQ69">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK69:AV69)</f>
         <v>28.822466296748132</v>
       </c>
       <c r="BR69">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW69:BH69)</f>
         <v>23.021718362811406</v>
       </c>
       <c r="BS69">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK69:BH69)</f>
         <v>25.695500613610367</v>
       </c>
       <c r="BU69" s="3">
@@ -15714,14 +15714,14 @@
         <v>828102</v>
       </c>
       <c r="BX69" s="24">
-        <f t="shared" si="35"/>
+        <f>BW69/B69*100000</f>
         <v>75056.421337326188</v>
       </c>
       <c r="BY69">
         <v>850890</v>
       </c>
       <c r="BZ69" s="24">
-        <f t="shared" si="36"/>
+        <f>BY69/B69*100000</f>
         <v>77121.850148553523</v>
       </c>
     </row>
@@ -15808,26 +15808,26 @@
         <v>69</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>983</v>
       </c>
       <c r="AD70" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>884</v>
       </c>
       <c r="AE70" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>1867</v>
       </c>
       <c r="AH70">
         <v>378480</v>
       </c>
       <c r="AI70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>4187.0112027055584</v>
       </c>
       <c r="AJ70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3647.7488902980344</v>
       </c>
       <c r="AK70" cm="1">
@@ -15904,39 +15904,39 @@
         <v>18.230818008877616</v>
       </c>
       <c r="BI70" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK70:AV70)</f>
         <v>259.72310293806805</v>
       </c>
       <c r="BJ70" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW70:BH70)</f>
         <v>233.5658423166349</v>
       </c>
       <c r="BK70" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>493.28894525470298</v>
       </c>
       <c r="BM70">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK70:AV70)</f>
         <v>21.64359191150567</v>
       </c>
       <c r="BN70">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW70:BH70)</f>
         <v>19.463820193052907</v>
       </c>
       <c r="BO70">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK70:BH70)</f>
         <v>20.553706052279292</v>
       </c>
       <c r="BQ70">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK70:AV70)</f>
         <v>22.590361445783131</v>
       </c>
       <c r="BR70">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW70:BH70)</f>
         <v>20.872965546396109</v>
       </c>
       <c r="BS70">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK70:BH70)</f>
         <v>22.326146692031283</v>
       </c>
       <c r="BU70" s="3">
@@ -15946,14 +15946,14 @@
         <v>308812</v>
       </c>
       <c r="BX70" s="24">
-        <f t="shared" si="35"/>
+        <f>BW70/B70*100000</f>
         <v>81592.686535616143</v>
       </c>
       <c r="BY70">
         <v>314691</v>
       </c>
       <c r="BZ70" s="24">
-        <f t="shared" si="36"/>
+        <f>BY70/B70*100000</f>
         <v>83146.005072923275</v>
       </c>
     </row>
@@ -16040,26 +16040,26 @@
         <v>104</v>
       </c>
       <c r="AC71" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>1258</v>
       </c>
       <c r="AD71" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>1178</v>
       </c>
       <c r="AE71" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>2436</v>
       </c>
       <c r="AH71">
         <v>235991</v>
       </c>
       <c r="AI71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3293.3459326838733</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>3515.8120436796316</v>
       </c>
       <c r="AK71" cm="1">
@@ -16136,39 +16136,39 @@
         <v>44.069477225826411</v>
       </c>
       <c r="BI71" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK71:AV71)</f>
         <v>533.07117644316941</v>
       </c>
       <c r="BJ71" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW71:BH71)</f>
         <v>499.17157857714915</v>
       </c>
       <c r="BK71" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>1032.2427550203186</v>
       </c>
       <c r="BM71">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK71:AV71)</f>
         <v>44.422598036930786</v>
       </c>
       <c r="BN71">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW71:BH71)</f>
         <v>41.597631548095762</v>
       </c>
       <c r="BO71">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK71:BH71)</f>
         <v>43.010114792513271</v>
       </c>
       <c r="BQ71">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK71:AV71)</f>
         <v>43.857604739163776</v>
       </c>
       <c r="BR71">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW71:BH71)</f>
         <v>43.857604739163783</v>
       </c>
       <c r="BS71">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK71:BH71)</f>
         <v>43.857604739163783</v>
       </c>
       <c r="BU71" s="3">
@@ -16178,14 +16178,14 @@
         <v>195340</v>
       </c>
       <c r="BX71" s="24">
-        <f t="shared" si="35"/>
+        <f>BW71/B71*100000</f>
         <v>82774.343089355112</v>
       </c>
       <c r="BY71">
         <v>192124</v>
       </c>
       <c r="BZ71" s="24">
-        <f t="shared" si="36"/>
+        <f>BY71/B71*100000</f>
         <v>81411.579255141085</v>
       </c>
     </row>
@@ -16198,119 +16198,119 @@
         <v>22903478</v>
       </c>
       <c r="AI72" s="16">
-        <f t="shared" ref="AI72:BK72" si="46">SUM(AI52:AI71)</f>
+        <f t="shared" ref="AI72:BK72" si="24">SUM(AI52:AI71)</f>
         <v>81675.061105731496</v>
       </c>
       <c r="AJ72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>76450.338323604839</v>
       </c>
       <c r="AK72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>560.36175675114487</v>
       </c>
       <c r="AL72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>498.40259905076584</v>
       </c>
       <c r="AM72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>559.33516573196232</v>
       </c>
       <c r="AN72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>543.06211963738303</v>
       </c>
       <c r="AO72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>561.06047222401139</v>
       </c>
       <c r="AP72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>552.88219117477558</v>
       </c>
       <c r="AQ72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>586.57685571150455</v>
       </c>
       <c r="AR72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>457.5971585531243</v>
       </c>
       <c r="AS72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>535.78170876819127</v>
       </c>
       <c r="AT72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>549.81179055910422</v>
       </c>
       <c r="AU72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>497.98343558373222</v>
       </c>
       <c r="AV72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>489.1150887933909</v>
       </c>
       <c r="AW72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>520.99713811643039</v>
       </c>
       <c r="AX72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>516.55844125835506</v>
       </c>
       <c r="AY72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>534.74951166169865</v>
       </c>
       <c r="AZ72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>456.33152146636411</v>
       </c>
       <c r="BA72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>465.81748846707507</v>
       </c>
       <c r="BB72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>508.42839538235069</v>
       </c>
       <c r="BC72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>503.13067219671819</v>
       </c>
       <c r="BD72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>427.89724644789914</v>
       </c>
       <c r="BE72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>499.71771325543267</v>
       </c>
       <c r="BF72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>446.37432396995263</v>
       </c>
       <c r="BG72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>399.96686128906828</v>
       </c>
       <c r="BI72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>6391.9703425390908</v>
       </c>
       <c r="BJ72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>5279.9693135113448</v>
       </c>
       <c r="BK72" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="24"/>
         <v>11671.939656050436</v>
       </c>
       <c r="BU72" s="17">
@@ -16326,131 +16326,131 @@
         <v>1145173.8999999999</v>
       </c>
       <c r="AI73" s="16">
-        <f t="shared" ref="AI73:BO73" si="47">AVERAGE(AI52:AI71)</f>
+        <f t="shared" ref="AI73:BO73" si="25">AVERAGE(AI52:AI71)</f>
         <v>4083.7530552865746</v>
       </c>
       <c r="AJ73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>3822.5169161802419</v>
       </c>
       <c r="AK73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>28.018087837557243</v>
       </c>
       <c r="AL73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>24.920129952538293</v>
       </c>
       <c r="AM73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>27.966758286598115</v>
       </c>
       <c r="AN73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>27.153105981869153</v>
       </c>
       <c r="AO73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>28.053023611200569</v>
       </c>
       <c r="AP73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>27.64410955873878</v>
       </c>
       <c r="AQ73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>29.328842785575226</v>
       </c>
       <c r="AR73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>22.879857927656214</v>
       </c>
       <c r="AS73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>26.789085438409565</v>
       </c>
       <c r="AT73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>27.490589527955212</v>
       </c>
       <c r="AU73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>24.899171779186609</v>
       </c>
       <c r="AV73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>24.455754439669544</v>
       </c>
       <c r="AW73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>26.049856905821521</v>
       </c>
       <c r="AX73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>25.827922062917754</v>
       </c>
       <c r="AY73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>26.737475583084933</v>
       </c>
       <c r="AZ73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>22.816576073318206</v>
       </c>
       <c r="BA73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>23.290874423353753</v>
       </c>
       <c r="BB73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>25.421419769117534</v>
       </c>
       <c r="BC73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>25.156533609835911</v>
       </c>
       <c r="BD73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>21.394862322394957</v>
       </c>
       <c r="BE73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>24.985885662771633</v>
       </c>
       <c r="BF73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>22.318716198497633</v>
       </c>
       <c r="BG73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BH73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>19.998343064453415</v>
       </c>
       <c r="BI73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>319.59851712695456</v>
       </c>
       <c r="BJ73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>263.99846567556722</v>
       </c>
       <c r="BK73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>583.59698280252178</v>
       </c>
       <c r="BM73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>26.63320976057954</v>
       </c>
       <c r="BN73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>21.999872139630604</v>
       </c>
       <c r="BO73" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>24.316540950105072</v>
       </c>
       <c r="BU73" s="17">
@@ -16673,39 +16673,39 @@
         <v>25.053710660880018</v>
       </c>
       <c r="BI75" s="23">
-        <f t="shared" si="37"/>
+        <f>SUM(AK75:AV75)</f>
         <v>401.42808623443801</v>
       </c>
       <c r="BJ75" s="23">
-        <f t="shared" si="38"/>
+        <f>SUM(AW75:BH75)</f>
         <v>329.41549602363358</v>
       </c>
       <c r="BK75" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>730.84358225807159</v>
       </c>
       <c r="BM75" s="22">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK75:AV75)</f>
         <v>33.452340519536499</v>
       </c>
       <c r="BN75" s="22">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW75:BH75)</f>
         <v>27.451291335302798</v>
       </c>
       <c r="BO75" s="22">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK75:BH75)</f>
         <v>30.451815927419645</v>
       </c>
       <c r="BQ75" s="22">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK75:AV75)</f>
         <v>33.48279107623037</v>
       </c>
       <c r="BR75" s="22">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW75:BH75)</f>
         <v>29.655636898074231</v>
       </c>
       <c r="BS75" s="22">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK75:BH75)</f>
         <v>31.938741795452376</v>
       </c>
       <c r="BU75" s="23">
@@ -16809,15 +16809,15 @@
         <v>134</v>
       </c>
       <c r="AC76" s="3">
-        <f t="shared" ref="AC76:AC95" si="48">SUM(E76:P76)</f>
+        <f t="shared" ref="AC76:AC95" si="26">SUM(E76:P76)</f>
         <v>2120</v>
       </c>
       <c r="AD76" s="3">
-        <f t="shared" ref="AD76:AD95" si="49">SUM(Q76:AB76)</f>
+        <f t="shared" ref="AD76:AD95" si="27">SUM(Q76:AB76)</f>
         <v>1746</v>
       </c>
       <c r="AE76" s="3">
-        <f t="shared" ref="AE76:AE94" si="50">SUM(AC76:AD76)</f>
+        <f t="shared" ref="AE76:AE94" si="28">SUM(AC76:AD76)</f>
         <v>3866</v>
       </c>
       <c r="AF76" s="3"/>
@@ -16825,11 +16825,11 @@
         <v>744885</v>
       </c>
       <c r="AI76">
-        <f t="shared" ref="AI76:AI95" si="51">C76/B76*100000</f>
+        <f t="shared" ref="AI76:AI95" si="29">C76/B76*100000</f>
         <v>5891.9162018298121</v>
       </c>
       <c r="AJ76">
-        <f t="shared" ref="AJ76:AJ95" si="52">D76/B76*100000</f>
+        <f t="shared" ref="AJ76:AJ95" si="30">D76/B76*100000</f>
         <v>5794.9884881558892</v>
       </c>
       <c r="AK76" cm="1">
@@ -16906,39 +16906,39 @@
         <v>17.989354061365177</v>
       </c>
       <c r="BI76" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK76:AV76)</f>
         <v>284.60769112010581</v>
       </c>
       <c r="BJ76" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW76:BH76)</f>
         <v>234.39859844137015</v>
       </c>
       <c r="BK76" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>519.00628956147602</v>
       </c>
       <c r="BM76">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK76:AV76)</f>
         <v>23.717307593342152</v>
       </c>
       <c r="BN76">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW76:BH76)</f>
         <v>19.533216536780845</v>
       </c>
       <c r="BO76">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK76:BH76)</f>
         <v>21.625262065061495</v>
       </c>
       <c r="BQ76">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK76:AV76)</f>
         <v>24.500426240292125</v>
       </c>
       <c r="BR76">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW76:BH76)</f>
         <v>21.211327923102225</v>
       </c>
       <c r="BS76">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK76:BH76)</f>
         <v>23.090812675782168</v>
       </c>
       <c r="BU76" s="3">
@@ -16948,14 +16948,14 @@
         <v>519016</v>
       </c>
       <c r="BX76" s="24">
-        <f t="shared" ref="BX76:BX95" si="53">BW76/B76*100000</f>
+        <f>BW76/B76*100000</f>
         <v>69677.332742638115</v>
       </c>
       <c r="BY76">
         <v>524562</v>
       </c>
       <c r="BZ76" s="24">
-        <f t="shared" ref="BZ76:BZ95" si="54">BY76/B76*100000</f>
+        <f>BY76/B76*100000</f>
         <v>70421.877202521195</v>
       </c>
     </row>
@@ -17042,15 +17042,15 @@
         <v>145</v>
       </c>
       <c r="AC77" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>2048</v>
       </c>
       <c r="AD77" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1704</v>
       </c>
       <c r="AE77" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>3752</v>
       </c>
       <c r="AF77" s="3"/>
@@ -17058,11 +17058,11 @@
         <v>497473</v>
       </c>
       <c r="AI77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>2929.4052139513101</v>
       </c>
       <c r="AJ77">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>2240.1215744372057</v>
       </c>
       <c r="AK77" cm="1">
@@ -17139,39 +17139,39 @@
         <v>29.147310507303914</v>
       </c>
       <c r="BI77" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK77:AV77)</f>
         <v>411.68063392385113</v>
       </c>
       <c r="BJ77" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW77:BH77)</f>
         <v>342.53115244445428</v>
       </c>
       <c r="BK77" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>754.21178636830541</v>
       </c>
       <c r="BM77">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK77:AV77)</f>
         <v>34.306719493654263</v>
       </c>
       <c r="BN77">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW77:BH77)</f>
         <v>28.544262703704522</v>
       </c>
       <c r="BO77">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK77:BH77)</f>
         <v>31.425491098679391</v>
       </c>
       <c r="BQ77">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK77:AV77)</f>
         <v>34.976772608764698</v>
       </c>
       <c r="BR77">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW77:BH77)</f>
         <v>31.458993754434914</v>
       </c>
       <c r="BS77">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK77:BH77)</f>
         <v>31.861025623501178</v>
       </c>
       <c r="BU77" s="3">
@@ -17181,14 +17181,14 @@
         <v>399518</v>
       </c>
       <c r="BX77" s="24">
-        <f t="shared" si="53"/>
+        <f>BW77/B77*100000</f>
         <v>80309.484132807207</v>
       </c>
       <c r="BY77">
         <v>409848</v>
       </c>
       <c r="BZ77" s="24">
-        <f t="shared" si="54"/>
+        <f>BY77/B77*100000</f>
         <v>82385.978736534453</v>
       </c>
     </row>
@@ -17275,15 +17275,15 @@
         <v>325</v>
       </c>
       <c r="AC78" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>4832</v>
       </c>
       <c r="AD78" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>3976</v>
       </c>
       <c r="AE78" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>8808</v>
       </c>
       <c r="AF78" s="3"/>
@@ -17291,11 +17291,11 @@
         <v>872147</v>
       </c>
       <c r="AI78">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>6038.660913813841</v>
       </c>
       <c r="AJ78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>5670.0303962520074</v>
       </c>
       <c r="AK78" cm="1">
@@ -17372,39 +17372,39 @@
         <v>37.264360251196187</v>
       </c>
       <c r="BI78" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK78:AV78)</f>
         <v>554.03504225778454</v>
       </c>
       <c r="BJ78" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW78:BH78)</f>
         <v>455.88645033463393</v>
       </c>
       <c r="BK78" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>1009.9214925924184</v>
       </c>
       <c r="BM78">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK78:AV78)</f>
         <v>46.169586854815378</v>
       </c>
       <c r="BN78">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW78:BH78)</f>
         <v>37.990537527886161</v>
       </c>
       <c r="BO78">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK78:BH78)</f>
         <v>42.080062191350777</v>
       </c>
       <c r="BQ78">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK78:AV78)</f>
         <v>45.806498216470388</v>
       </c>
       <c r="BR78">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW78:BH78)</f>
         <v>39.041583586253232</v>
       </c>
       <c r="BS78">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK78:BH78)</f>
         <v>44.37325359142438</v>
       </c>
       <c r="BU78" s="3">
@@ -17414,14 +17414,14 @@
         <v>623047</v>
       </c>
       <c r="BX78" s="24">
-        <f t="shared" si="53"/>
+        <f>BW78/B78*100000</f>
         <v>71438.301112083165</v>
       </c>
       <c r="BY78">
         <v>624264</v>
       </c>
       <c r="BZ78" s="24">
-        <f t="shared" si="54"/>
+        <f>BY78/B78*100000</f>
         <v>71577.841808777652</v>
       </c>
     </row>
@@ -17508,15 +17508,15 @@
         <v>427</v>
       </c>
       <c r="AC79" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>7297</v>
       </c>
       <c r="AD79" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>5810</v>
       </c>
       <c r="AE79" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>13107</v>
       </c>
       <c r="AF79" s="3"/>
@@ -17524,11 +17524,11 @@
         <v>1758489</v>
       </c>
       <c r="AI79">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>5201.8522720358214</v>
       </c>
       <c r="AJ79">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>4992.4679653952908</v>
       </c>
       <c r="AK79" cm="1">
@@ -17605,39 +17605,39 @@
         <v>24.282210465917046</v>
       </c>
       <c r="BI79" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK79:AV79)</f>
         <v>414.9585240510462</v>
       </c>
       <c r="BJ79" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW79:BH79)</f>
         <v>330.39728994608441</v>
       </c>
       <c r="BK79" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>745.35581399713055</v>
       </c>
       <c r="BM79">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK79:AV79)</f>
         <v>34.579877004253852</v>
       </c>
       <c r="BN79">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW79:BH79)</f>
         <v>27.533107495507036</v>
       </c>
       <c r="BO79">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK79:BH79)</f>
         <v>31.056492249880431</v>
       </c>
       <c r="BQ79">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK79:AV79)</f>
         <v>35.143808121631693</v>
       </c>
       <c r="BR79">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW79:BH79)</f>
         <v>29.400240774892534</v>
       </c>
       <c r="BS79">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK79:BH79)</f>
         <v>34.034901554687011</v>
       </c>
       <c r="BU79" s="3">
@@ -17647,14 +17647,14 @@
         <v>1248835</v>
       </c>
       <c r="BX79" s="24">
-        <f t="shared" si="53"/>
+        <f>BW79/B79*100000</f>
         <v>71017.504232326741</v>
       </c>
       <c r="BY79">
         <v>1267220</v>
       </c>
       <c r="BZ79" s="24">
-        <f t="shared" si="54"/>
+        <f>BY79/B79*100000</f>
         <v>72063.004090443559</v>
       </c>
     </row>
@@ -17741,15 +17741,15 @@
         <v>195</v>
       </c>
       <c r="AC80" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>2818</v>
       </c>
       <c r="AD80" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>2308</v>
       </c>
       <c r="AE80" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>5126</v>
       </c>
       <c r="AF80" s="3"/>
@@ -17757,11 +17757,11 @@
         <v>564866</v>
       </c>
       <c r="AI80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>2745.0758232926037</v>
       </c>
       <c r="AJ80">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>2847.5780096518465</v>
       </c>
       <c r="AK80" cm="1">
@@ -17838,39 +17838,39 @@
         <v>34.521461727206102</v>
       </c>
       <c r="BI80" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK80:AV80)</f>
         <v>498.87938024239372</v>
       </c>
       <c r="BJ80" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW80:BH80)</f>
         <v>408.5924803404701</v>
       </c>
       <c r="BK80" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>907.47186058286388</v>
       </c>
       <c r="BM80">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK80:AV80)</f>
         <v>41.573281686866146</v>
       </c>
       <c r="BN80">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW80:BH80)</f>
         <v>34.04937336170584</v>
       </c>
       <c r="BO80">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK80:BH80)</f>
         <v>37.811327524285993</v>
       </c>
       <c r="BQ80">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK80:AV80)</f>
         <v>41.868336915303807</v>
       </c>
       <c r="BR80">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW80:BH80)</f>
         <v>37.531025057270213</v>
       </c>
       <c r="BS80">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK80:BH80)</f>
         <v>40.452071818803041</v>
       </c>
       <c r="BU80" s="3">
@@ -17880,14 +17880,14 @@
         <v>442355</v>
       </c>
       <c r="BX80" s="24">
-        <f t="shared" si="53"/>
+        <f>BW80/B80*100000</f>
         <v>78311.493345324372</v>
       </c>
       <c r="BY80">
         <v>443995</v>
       </c>
       <c r="BZ80" s="24">
-        <f t="shared" si="54"/>
+        <f>BY80/B80*100000</f>
         <v>78601.827690107035</v>
       </c>
     </row>
@@ -17974,15 +17974,15 @@
         <v>278</v>
       </c>
       <c r="AC81" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>4970</v>
       </c>
       <c r="AD81" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>3897</v>
       </c>
       <c r="AE81" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>8867</v>
       </c>
       <c r="AF81" s="3"/>
@@ -17990,11 +17990,11 @@
         <v>914431</v>
       </c>
       <c r="AI81">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3561.8871188750163</v>
       </c>
       <c r="AJ81">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3338.4694963315987</v>
       </c>
       <c r="AK81" cm="1">
@@ -18071,39 +18071,39 @@
         <v>30.401419024508137</v>
       </c>
       <c r="BI81" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK81:AV81)</f>
         <v>543.50738327987563</v>
       </c>
       <c r="BJ81" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW81:BH81)</f>
         <v>426.16665445506555</v>
       </c>
       <c r="BK81" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>969.67403773494118</v>
       </c>
       <c r="BM81">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK81:AV81)</f>
         <v>45.292281939989635</v>
       </c>
       <c r="BN81">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW81:BH81)</f>
         <v>35.513887871255463</v>
       </c>
       <c r="BO81">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK81:BH81)</f>
         <v>40.403084905622556</v>
       </c>
       <c r="BQ81">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK81:AV81)</f>
         <v>43.907085389712293</v>
       </c>
       <c r="BR81">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW81:BH81)</f>
         <v>38.384525459001281</v>
       </c>
       <c r="BS81">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK81:BH81)</f>
         <v>40.18892622844151</v>
       </c>
       <c r="BU81" s="3">
@@ -18113,14 +18113,14 @@
         <v>661181</v>
       </c>
       <c r="BX81" s="24">
-        <f t="shared" si="53"/>
+        <f>BW81/B81*100000</f>
         <v>72305.18212965221</v>
       </c>
       <c r="BY81">
         <v>687784</v>
       </c>
       <c r="BZ81" s="24">
-        <f t="shared" si="54"/>
+        <f>BY81/B81*100000</f>
         <v>75214.422958101815</v>
       </c>
     </row>
@@ -18207,15 +18207,15 @@
         <v>152</v>
       </c>
       <c r="AC82" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>2617</v>
       </c>
       <c r="AD82" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>2034</v>
       </c>
       <c r="AE82" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>4651</v>
       </c>
       <c r="AF82" s="3"/>
@@ -18223,11 +18223,11 @@
         <v>1363276</v>
       </c>
       <c r="AI82">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>4291.5007672694301</v>
       </c>
       <c r="AJ82">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3554.5260094067526</v>
       </c>
       <c r="AK82" cm="1">
@@ -18304,39 +18304,39 @@
         <v>11.149613137765206</v>
       </c>
       <c r="BI82" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK82:AV82)</f>
         <v>191.96406303639176</v>
       </c>
       <c r="BJ82" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW82:BH82)</f>
         <v>149.19942843562126</v>
       </c>
       <c r="BK82" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>341.16349147201299</v>
       </c>
       <c r="BM82">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK82:AV82)</f>
         <v>15.997005253032647</v>
       </c>
       <c r="BN82">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW82:BH82)</f>
         <v>12.433285702968439</v>
       </c>
       <c r="BO82">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK82:BH82)</f>
         <v>14.215145478000538</v>
       </c>
       <c r="BQ82">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK82:AV82)</f>
         <v>17.054506937700069</v>
       </c>
       <c r="BR82">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW82:BH82)</f>
         <v>12.726696575014891</v>
       </c>
       <c r="BS82">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK82:BH82)</f>
         <v>14.597190884311026</v>
       </c>
       <c r="BU82" s="3">
@@ -18346,14 +18346,14 @@
         <v>1017449</v>
       </c>
       <c r="BX82" s="24">
-        <f t="shared" si="53"/>
+        <f>BW82/B82*100000</f>
         <v>74632.649588197848</v>
       </c>
       <c r="BY82">
         <v>1039548</v>
       </c>
       <c r="BZ82" s="24">
-        <f t="shared" si="54"/>
+        <f>BY82/B82*100000</f>
         <v>76253.671303536481</v>
       </c>
     </row>
@@ -18440,15 +18440,15 @@
         <v>138</v>
       </c>
       <c r="AC83" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>2134</v>
       </c>
       <c r="AD83" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1812</v>
       </c>
       <c r="AE83" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>3946</v>
       </c>
       <c r="AF83" s="3"/>
@@ -18456,11 +18456,11 @@
         <v>1116792</v>
       </c>
       <c r="AI83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3849.8664030544633</v>
       </c>
       <c r="AJ83">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3176.1509752935194</v>
       </c>
       <c r="AK83" cm="1">
@@ -18537,39 +18537,39 @@
         <v>12.356822040272494</v>
       </c>
       <c r="BI83" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK83:AV83)</f>
         <v>191.08303068073553</v>
       </c>
       <c r="BJ83" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW83:BH83)</f>
         <v>162.25044592009971</v>
       </c>
       <c r="BK83" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>353.33347660083524</v>
       </c>
       <c r="BM83">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK83:AV83)</f>
         <v>15.923585890061295</v>
       </c>
       <c r="BN83">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW83:BH83)</f>
         <v>13.520870493341642</v>
       </c>
       <c r="BO83">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK83:BH83)</f>
         <v>14.722228191701468</v>
       </c>
       <c r="BQ83">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK83:AV83)</f>
         <v>15.35648536164299</v>
       </c>
       <c r="BR83">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW83:BH83)</f>
         <v>14.550605663364351</v>
       </c>
       <c r="BS83">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK83:BH83)</f>
         <v>15.266943172945364</v>
       </c>
       <c r="BU83" s="3">
@@ -18579,14 +18579,14 @@
         <v>852225</v>
       </c>
       <c r="BX83" s="24">
-        <f t="shared" si="53"/>
+        <f>BW83/B83*100000</f>
         <v>76310.091762834971</v>
       </c>
       <c r="BY83">
         <v>868678</v>
       </c>
       <c r="BZ83" s="24">
-        <f t="shared" si="54"/>
+        <f>BY83/B83*100000</f>
         <v>77783.329393477034</v>
       </c>
     </row>
@@ -18673,15 +18673,15 @@
         <v>110</v>
       </c>
       <c r="AC84" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>1720</v>
       </c>
       <c r="AD84" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1541</v>
       </c>
       <c r="AE84" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>3261</v>
       </c>
       <c r="AF84" s="3"/>
@@ -18689,11 +18689,11 @@
         <v>443129</v>
       </c>
       <c r="AI84">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3631.8995145883027</v>
       </c>
       <c r="AJ84">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>4425.1222555960003</v>
       </c>
       <c r="AK84" cm="1">
@@ -18770,39 +18770,39 @@
         <v>24.823471269088685</v>
       </c>
       <c r="BI84" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK84:AV84)</f>
         <v>388.14882348029579</v>
       </c>
       <c r="BJ84" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW84:BH84)</f>
         <v>347.75426568786963</v>
       </c>
       <c r="BK84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>735.90308916816548</v>
       </c>
       <c r="BM84">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK84:AV84)</f>
         <v>32.345735290024649</v>
       </c>
       <c r="BN84">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW84:BH84)</f>
         <v>28.979522140655803</v>
       </c>
       <c r="BO84">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK84:BH84)</f>
         <v>30.662628715340229</v>
       </c>
       <c r="BQ84">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK84:AV84)</f>
         <v>31.029339086360856</v>
       </c>
       <c r="BR84">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW84:BH84)</f>
         <v>32.383346610129337</v>
       </c>
       <c r="BS84">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK84:BH84)</f>
         <v>31.480674927617017</v>
       </c>
       <c r="BU84" s="3">
@@ -18812,14 +18812,14 @@
         <v>346350</v>
       </c>
       <c r="BX84" s="24">
-        <f t="shared" si="53"/>
+        <f>BW84/B84*100000</f>
         <v>78160.084309535145</v>
       </c>
       <c r="BY84">
         <v>338563</v>
       </c>
       <c r="BZ84" s="24">
-        <f t="shared" si="54"/>
+        <f>BY84/B84*100000</f>
         <v>76402.808211604293</v>
       </c>
     </row>
@@ -18906,15 +18906,15 @@
         <v>84</v>
       </c>
       <c r="AC85" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>1046</v>
       </c>
       <c r="AD85" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>861</v>
       </c>
       <c r="AE85" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>1907</v>
       </c>
       <c r="AF85" s="3"/>
@@ -18922,11 +18922,11 @@
         <v>341955</v>
       </c>
       <c r="AI85">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>1827.1409980845431</v>
       </c>
       <c r="AJ85">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>1977.4531736632014</v>
       </c>
       <c r="AK85" cm="1">
@@ -19003,39 +19003,39 @@
         <v>24.56463569767952</v>
       </c>
       <c r="BI85" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK85:AV85)</f>
         <v>305.88820166396164</v>
       </c>
       <c r="BJ85" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW85:BH85)</f>
         <v>251.78751590121504</v>
       </c>
       <c r="BK85" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>557.67571756517668</v>
       </c>
       <c r="BM85">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK85:AV85)</f>
         <v>25.490683471996803</v>
       </c>
       <c r="BN85">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW85:BH85)</f>
         <v>20.98229299176792</v>
       </c>
       <c r="BO85">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK85:BH85)</f>
         <v>23.236488231882362</v>
       </c>
       <c r="BQ85">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK85:AV85)</f>
         <v>24.85707183693761</v>
       </c>
       <c r="BR85">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW85:BH85)</f>
         <v>22.810018862130981</v>
       </c>
       <c r="BS85">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK85:BH85)</f>
         <v>23.394891140647161</v>
       </c>
       <c r="BU85" s="3">
@@ -19045,14 +19045,14 @@
         <v>279239</v>
       </c>
       <c r="BX85" s="24">
-        <f t="shared" si="53"/>
+        <f>BW85/B85*100000</f>
         <v>81659.575090289654</v>
       </c>
       <c r="BY85">
         <v>274681</v>
       </c>
       <c r="BZ85" s="24">
-        <f t="shared" si="54"/>
+        <f>BY85/B85*100000</f>
         <v>80326.651167551288</v>
       </c>
     </row>
@@ -19139,15 +19139,15 @@
         <v>798</v>
       </c>
       <c r="AC86" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>8318</v>
       </c>
       <c r="AD86" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>8227</v>
       </c>
       <c r="AE86" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>16545</v>
       </c>
       <c r="AF86" s="3"/>
@@ -19155,11 +19155,11 @@
         <v>1773203</v>
       </c>
       <c r="AI86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>6249.7074503032081</v>
       </c>
       <c r="AJ86">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>5689.4783056423885</v>
       </c>
       <c r="AK86" cm="1">
@@ -19236,39 +19236,39 @@
         <v>45.003307573921312</v>
       </c>
       <c r="BI86" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK86:AV86)</f>
         <v>469.09462706751572</v>
       </c>
       <c r="BJ86" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW86:BH86)</f>
         <v>463.96267094066502</v>
       </c>
       <c r="BK86" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>933.05729800818074</v>
       </c>
       <c r="BM86">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK86:AV86)</f>
         <v>39.091218922292974</v>
       </c>
       <c r="BN86">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW86:BH86)</f>
         <v>38.663555911722085</v>
       </c>
       <c r="BO86">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK86:BH86)</f>
         <v>38.877387417007533</v>
       </c>
       <c r="BQ86">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK86:AV86)</f>
         <v>38.715251440472407</v>
       </c>
       <c r="BR86">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW86:BH86)</f>
         <v>43.311453905728783</v>
       </c>
       <c r="BS86">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK86:BH86)</f>
         <v>39.702166080251388</v>
       </c>
       <c r="BU86" s="3">
@@ -19278,14 +19278,14 @@
         <v>1163874</v>
       </c>
       <c r="BX86" s="24">
-        <f t="shared" si="53"/>
+        <f>BW86/B86*100000</f>
         <v>65636.816540463784</v>
       </c>
       <c r="BY86">
         <v>1171370</v>
       </c>
       <c r="BZ86" s="24">
-        <f t="shared" si="54"/>
+        <f>BY86/B86*100000</f>
         <v>66059.554377022825</v>
       </c>
     </row>
@@ -19372,15 +19372,15 @@
         <v>243</v>
       </c>
       <c r="AC87" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>3702</v>
       </c>
       <c r="AD87" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>2659</v>
       </c>
       <c r="AE87" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>6361</v>
       </c>
       <c r="AF87" s="3"/>
@@ -19388,11 +19388,11 @@
         <v>1095125</v>
       </c>
       <c r="AI87">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>4168.1086633945897</v>
       </c>
       <c r="AJ87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3525.259673553247</v>
       </c>
       <c r="AK87" cm="1">
@@ -19469,39 +19469,39 @@
         <v>22.189247802762239</v>
       </c>
       <c r="BI87" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK87:AV87)</f>
         <v>338.04360232850138</v>
       </c>
       <c r="BJ87" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW87:BH87)</f>
         <v>242.80333295285925</v>
       </c>
       <c r="BK87" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>580.84693528136063</v>
       </c>
       <c r="BM87">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK87:AV87)</f>
         <v>28.170300194041783</v>
       </c>
       <c r="BN87">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW87:BH87)</f>
         <v>20.233611079404938</v>
       </c>
       <c r="BO87">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK87:BH87)</f>
         <v>24.201955636723365</v>
       </c>
       <c r="BQ87">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK87:AV87)</f>
         <v>27.850701974660428</v>
       </c>
       <c r="BR87">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW87:BH87)</f>
         <v>20.545599817372448</v>
       </c>
       <c r="BS87">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK87:BH87)</f>
         <v>26.070083323821478</v>
       </c>
       <c r="BU87" s="3">
@@ -19511,14 +19511,14 @@
         <v>859302</v>
       </c>
       <c r="BX87" s="24">
-        <f t="shared" si="53"/>
+        <f>BW87/B87*100000</f>
         <v>78466.111174523452</v>
       </c>
       <c r="BY87">
         <v>872190</v>
       </c>
       <c r="BZ87" s="24">
-        <f t="shared" si="54"/>
+        <f>BY87/B87*100000</f>
         <v>79642.963132062549</v>
       </c>
     </row>
@@ -19605,15 +19605,15 @@
         <v>44</v>
       </c>
       <c r="AC88" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>2454</v>
       </c>
       <c r="AD88" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1970</v>
       </c>
       <c r="AE88" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>4424</v>
       </c>
       <c r="AF88" s="3"/>
@@ -19621,11 +19621,11 @@
         <v>730237</v>
       </c>
       <c r="AI88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3719.8882006800536</v>
       </c>
       <c r="AJ88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>2708.4357544194559</v>
       </c>
       <c r="AK88" cm="1">
@@ -19702,39 +19702,39 @@
         <v>6.0254410554381659</v>
       </c>
       <c r="BI88" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK88:AV88)</f>
         <v>336.05528068284679</v>
       </c>
       <c r="BJ88" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW88:BH88)</f>
         <v>269.775429073027</v>
       </c>
       <c r="BK88" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>605.83070975587384</v>
       </c>
       <c r="BM88">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK88:AV88)</f>
         <v>28.004606723570564</v>
       </c>
       <c r="BN88">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW88:BH88)</f>
         <v>22.481285756085583</v>
       </c>
       <c r="BO88">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK88:BH88)</f>
         <v>25.242946239828072</v>
       </c>
       <c r="BQ88">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK88:AV88)</f>
         <v>28.757786855500338</v>
       </c>
       <c r="BR88">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW88:BH88)</f>
         <v>25.402711722358632</v>
       </c>
       <c r="BS88">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK88:BH88)</f>
         <v>27.593781197063421</v>
       </c>
       <c r="BU88" s="3">
@@ -19744,14 +19744,14 @@
         <v>586693</v>
       </c>
       <c r="BX88" s="24">
-        <f t="shared" si="53"/>
+        <f>BW88/B88*100000</f>
         <v>80342.820207685989</v>
       </c>
       <c r="BY88">
         <v>606519</v>
       </c>
       <c r="BZ88" s="24">
-        <f t="shared" si="54"/>
+        <f>BY88/B88*100000</f>
         <v>83057.829170529556</v>
       </c>
     </row>
@@ -19838,15 +19838,15 @@
         <v>88</v>
       </c>
       <c r="AC89" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>1509</v>
       </c>
       <c r="AD89" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1134</v>
       </c>
       <c r="AE89" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>2643</v>
       </c>
       <c r="AF89" s="3"/>
@@ -19854,11 +19854,11 @@
         <v>442068</v>
       </c>
       <c r="AI89">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3454.2197128043649</v>
       </c>
       <c r="AJ89">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3089.5699304179448</v>
       </c>
       <c r="AK89" cm="1">
@@ -19935,39 +19935,39 @@
         <v>19.906439733253709</v>
       </c>
       <c r="BI89" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK89:AV89)</f>
         <v>341.35019951681642</v>
       </c>
       <c r="BJ89" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW89:BH89)</f>
         <v>256.52162110806483</v>
       </c>
       <c r="BK89" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>597.87182062488125</v>
       </c>
       <c r="BM89">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK89:AV89)</f>
         <v>28.445849959734701</v>
       </c>
       <c r="BN89">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW89:BH89)</f>
         <v>21.376801759005403</v>
       </c>
       <c r="BO89">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK89:BH89)</f>
         <v>24.911325859370052</v>
       </c>
       <c r="BQ89">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK89:AV89)</f>
         <v>29.181030972610547</v>
       </c>
       <c r="BR89">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW89:BH89)</f>
         <v>22.055430386275415</v>
       </c>
       <c r="BS89">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK89:BH89)</f>
         <v>26.127202149895489</v>
       </c>
       <c r="BU89" s="3">
@@ -19977,14 +19977,14 @@
         <v>353328</v>
       </c>
       <c r="BX89" s="24">
-        <f t="shared" si="53"/>
+        <f>BW89/B89*100000</f>
         <v>79926.165205353027</v>
       </c>
       <c r="BY89">
         <v>350639</v>
       </c>
       <c r="BZ89" s="24">
-        <f t="shared" si="54"/>
+        <f>BY89/B89*100000</f>
         <v>79317.887745776665</v>
       </c>
     </row>
@@ -20071,15 +20071,15 @@
         <v>1251</v>
       </c>
       <c r="AC90" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>20301</v>
       </c>
       <c r="AD90" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>16240</v>
       </c>
       <c r="AE90" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>36541</v>
       </c>
       <c r="AF90" s="3"/>
@@ -20087,11 +20087,11 @@
         <v>5823490</v>
       </c>
       <c r="AI90">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>5215.9615625681508</v>
       </c>
       <c r="AJ90">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>4852.4853653049977</v>
       </c>
       <c r="AK90" cm="1">
@@ -20168,39 +20168,39 @@
         <v>21.481963564803923</v>
       </c>
       <c r="BI90" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK90:AV90)</f>
         <v>348.60538955162633</v>
       </c>
       <c r="BJ90" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW90:BH90)</f>
         <v>278.87057417459289</v>
       </c>
       <c r="BK90" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>627.47596372621922</v>
       </c>
       <c r="BM90">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK90:AV90)</f>
         <v>29.050449129302194</v>
       </c>
       <c r="BN90">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW90:BH90)</f>
         <v>23.239214514549406</v>
       </c>
       <c r="BO90">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK90:BH90)</f>
         <v>26.144831821925795</v>
       </c>
       <c r="BQ90">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK90:AV90)</f>
         <v>28.548173002786989</v>
       </c>
       <c r="BR90">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW90:BH90)</f>
         <v>25.895124744783626</v>
       </c>
       <c r="BS90">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK90:BH90)</f>
         <v>27.698167250222802</v>
       </c>
       <c r="BU90" s="3">
@@ -20210,14 +20210,14 @@
         <v>4289791</v>
       </c>
       <c r="BX90" s="24">
-        <f t="shared" si="53"/>
+        <f>BW90/B90*100000</f>
         <v>73663.576309051787</v>
       </c>
       <c r="BY90">
         <v>4419591</v>
       </c>
       <c r="BZ90" s="24">
-        <f t="shared" si="54"/>
+        <f>BY90/B90*100000</f>
         <v>75892.480282442324</v>
       </c>
     </row>
@@ -20304,15 +20304,15 @@
         <v>202</v>
       </c>
       <c r="AC91" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>4547</v>
       </c>
       <c r="AD91" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>3741</v>
       </c>
       <c r="AE91" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>8288</v>
       </c>
       <c r="AF91" s="3"/>
@@ -20320,11 +20320,11 @@
         <v>1490187</v>
       </c>
       <c r="AI91">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3406.9549660545954</v>
       </c>
       <c r="AJ91">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3231.5407395179263</v>
       </c>
       <c r="AK91" cm="1">
@@ -20401,39 +20401,39 @@
         <v>13.555345738487855</v>
       </c>
       <c r="BI91" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK91:AV91)</f>
         <v>305.12949045992218</v>
       </c>
       <c r="BJ91" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW91:BH91)</f>
         <v>251.04231884991617</v>
       </c>
       <c r="BK91" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>556.17180930983841</v>
       </c>
       <c r="BM91">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK91:AV91)</f>
         <v>25.427457538326848</v>
       </c>
       <c r="BN91">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW91:BH91)</f>
         <v>20.920193237493013</v>
       </c>
       <c r="BO91">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK91:BH91)</f>
         <v>23.173825387909933</v>
       </c>
       <c r="BQ91">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK91:AV91)</f>
         <v>25.298838333712482</v>
       </c>
       <c r="BR91">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW91:BH91)</f>
         <v>22.849481306708491</v>
       </c>
       <c r="BS91">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK91:BH91)</f>
         <v>24.225147582149084</v>
       </c>
       <c r="BU91" s="3">
@@ -20443,14 +20443,14 @@
         <v>1197830</v>
       </c>
       <c r="BX91" s="24">
-        <f t="shared" si="53"/>
+        <f>BW91/B91*100000</f>
         <v>80381.187059073782</v>
       </c>
       <c r="BY91">
         <v>1220144</v>
       </c>
       <c r="BZ91" s="24">
-        <f t="shared" si="54"/>
+        <f>BY91/B91*100000</f>
         <v>81878.583023472893</v>
       </c>
     </row>
@@ -20537,15 +20537,15 @@
         <v>260</v>
       </c>
       <c r="AC92" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>4197</v>
       </c>
       <c r="AD92" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>3279</v>
       </c>
       <c r="AE92" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>7476</v>
       </c>
       <c r="AF92" s="3"/>
@@ -20553,11 +20553,11 @@
         <v>1213948</v>
       </c>
       <c r="AI92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3378.3984157476266</v>
       </c>
       <c r="AJ92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3460.4447636966329</v>
       </c>
       <c r="AK92" cm="1">
@@ -20634,39 +20634,39 @@
         <v>21.417721352150174</v>
       </c>
       <c r="BI92" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK92:AV92)</f>
         <v>345.73144813451648</v>
       </c>
       <c r="BJ92" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW92:BH92)</f>
         <v>270.11041659115546</v>
       </c>
       <c r="BK92" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>615.84186472567194</v>
       </c>
       <c r="BM92">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK92:AV92)</f>
         <v>28.810954011209706</v>
       </c>
       <c r="BN92">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW92:BH92)</f>
         <v>22.509201382596288</v>
       </c>
       <c r="BO92">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK92:BH92)</f>
         <v>25.660077696902992</v>
       </c>
       <c r="BQ92">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK92:AV92)</f>
         <v>27.637098129409168</v>
       </c>
       <c r="BR92">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW92:BH92)</f>
         <v>23.518305561687981</v>
       </c>
       <c r="BS92">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK92:BH92)</f>
         <v>26.813339615864926</v>
       </c>
       <c r="BU92" s="3">
@@ -20676,14 +20676,14 @@
         <v>987919</v>
       </c>
       <c r="BX92" s="24">
-        <f t="shared" si="53"/>
+        <f>BW92/B92*100000</f>
         <v>81380.668694210952</v>
       </c>
       <c r="BY92">
         <v>983400</v>
       </c>
       <c r="BZ92" s="24">
-        <f t="shared" si="54"/>
+        <f>BY92/B92*100000</f>
         <v>81008.412221940322</v>
       </c>
     </row>
@@ -20770,15 +20770,15 @@
         <v>228</v>
       </c>
       <c r="AC93" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>4543</v>
       </c>
       <c r="AD93" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>3341</v>
       </c>
       <c r="AE93" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>7884</v>
       </c>
       <c r="AF93" s="3"/>
@@ -20786,11 +20786,11 @@
         <v>1103306</v>
       </c>
       <c r="AI93">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>4632.2597719943515</v>
       </c>
       <c r="AJ93">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>4712.6545128912558</v>
       </c>
       <c r="AK93" cm="1">
@@ -20867,39 +20867,39 @@
         <v>20.665164514649607</v>
       </c>
       <c r="BI93" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK93:AV93)</f>
         <v>411.76246662304027</v>
       </c>
       <c r="BJ93" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW93:BH93)</f>
         <v>302.81716948879102</v>
       </c>
       <c r="BK93" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>714.57963611183129</v>
       </c>
       <c r="BM93">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK93:AV93)</f>
         <v>34.313538885253358</v>
       </c>
       <c r="BN93">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW93:BH93)</f>
         <v>25.234764124065919</v>
       </c>
       <c r="BO93">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK93:BH93)</f>
         <v>29.774151504659628</v>
       </c>
       <c r="BQ93">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK93:AV93)</f>
         <v>34.441940857749344</v>
       </c>
       <c r="BR93">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW93:BH93)</f>
         <v>27.10036925386067</v>
       </c>
       <c r="BS93">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK93:BH93)</f>
         <v>30.997746771974413</v>
       </c>
       <c r="BU93" s="3">
@@ -20909,14 +20909,14 @@
         <v>828102</v>
       </c>
       <c r="BX93" s="24">
-        <f t="shared" si="53"/>
+        <f>BW93/B93*100000</f>
         <v>75056.421337326188</v>
       </c>
       <c r="BY93">
         <v>850890</v>
       </c>
       <c r="BZ93" s="24">
-        <f t="shared" si="54"/>
+        <f>BY93/B93*100000</f>
         <v>77121.850148553523</v>
       </c>
     </row>
@@ -21003,15 +21003,15 @@
         <v>85</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>1167</v>
       </c>
       <c r="AD94" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1061</v>
       </c>
       <c r="AE94" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="28"/>
         <v>2228</v>
       </c>
       <c r="AF94" s="3"/>
@@ -21019,11 +21019,11 @@
         <v>378480</v>
       </c>
       <c r="AI94">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>4187.0112027055584</v>
       </c>
       <c r="AJ94">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3647.7488902980344</v>
       </c>
       <c r="AK94" cm="1">
@@ -21100,39 +21100,39 @@
         <v>22.458254068907209</v>
       </c>
       <c r="BI94" s="3">
-        <f t="shared" si="37"/>
+        <f>SUM(AK94:AV94)</f>
         <v>308.33861762840837</v>
       </c>
       <c r="BJ94" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW94:BH94)</f>
         <v>280.33185373071234</v>
       </c>
       <c r="BK94" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>588.67047135912071</v>
       </c>
       <c r="BM94">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK94:AV94)</f>
         <v>25.694884802367365</v>
       </c>
       <c r="BN94">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW94:BH94)</f>
         <v>23.360987810892695</v>
       </c>
       <c r="BO94">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK94:BH94)</f>
         <v>24.527936306630028</v>
       </c>
       <c r="BQ94">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK94:AV94)</f>
         <v>24.704079475797929</v>
       </c>
       <c r="BR94">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW94:BH94)</f>
         <v>26.421475375184947</v>
       </c>
       <c r="BS94">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK94:BH94)</f>
         <v>25.628831113929401</v>
       </c>
       <c r="BU94" s="3">
@@ -21142,14 +21142,14 @@
         <v>308812</v>
       </c>
       <c r="BX94" s="24">
-        <f t="shared" si="53"/>
+        <f>BW94/B94*100000</f>
         <v>81592.686535616143</v>
       </c>
       <c r="BY94">
         <v>314691</v>
       </c>
       <c r="BZ94" s="24">
-        <f t="shared" si="54"/>
+        <f>BY94/B94*100000</f>
         <v>83146.005072923275</v>
       </c>
     </row>
@@ -21236,11 +21236,11 @@
         <v>128</v>
       </c>
       <c r="AC95" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>1505</v>
       </c>
       <c r="AD95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="27"/>
         <v>1355</v>
       </c>
       <c r="AE95" s="3">
@@ -21252,11 +21252,11 @@
         <v>235991</v>
       </c>
       <c r="AI95">
-        <f t="shared" si="51"/>
+        <f t="shared" si="29"/>
         <v>3293.3459326838733</v>
       </c>
       <c r="AJ95">
-        <f t="shared" si="52"/>
+        <f t="shared" si="30"/>
         <v>3515.8120436796316</v>
       </c>
       <c r="AK95" cm="1">
@@ -21337,35 +21337,35 @@
         <v>637.73618485450709</v>
       </c>
       <c r="BJ95" s="3">
-        <f t="shared" si="38"/>
+        <f>SUM(AW95:BH95)</f>
         <v>574.17443885571913</v>
       </c>
       <c r="BK95" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>1211.9106237102262</v>
       </c>
       <c r="BM95">
-        <f t="shared" si="40"/>
+        <f>AVERAGE(AK95:AV95)</f>
         <v>53.144682071208926</v>
       </c>
       <c r="BN95">
-        <f t="shared" si="41"/>
+        <f>AVERAGE(AW95:BH95)</f>
         <v>47.847869904643261</v>
       </c>
       <c r="BO95">
-        <f t="shared" si="42"/>
+        <f>AVERAGE(AK95:BH95)</f>
         <v>50.496275987926104</v>
       </c>
       <c r="BQ95">
-        <f t="shared" si="43"/>
+        <f>MEDIAN(AK95:AV95)</f>
         <v>54.239356585632507</v>
       </c>
       <c r="BR95">
-        <f t="shared" si="44"/>
+        <f>MEDIAN(AW95:BH95)</f>
         <v>52.968121665656739</v>
       </c>
       <c r="BS95">
-        <f t="shared" si="45"/>
+        <f>MEDIAN(AK95:BH95)</f>
         <v>52.968121665656739</v>
       </c>
       <c r="BU95" s="3">
@@ -21375,14 +21375,14 @@
         <v>195340</v>
       </c>
       <c r="BX95" s="24">
-        <f t="shared" si="53"/>
+        <f>BW95/B95*100000</f>
         <v>82774.343089355112</v>
       </c>
       <c r="BY95">
         <v>192124</v>
       </c>
       <c r="BZ95" s="24">
-        <f t="shared" si="54"/>
+        <f>BY95/B95*100000</f>
         <v>81411.579255141085</v>
       </c>
     </row>
@@ -21395,119 +21395,119 @@
         <v>22903478</v>
       </c>
       <c r="AI96" s="16">
-        <f t="shared" ref="AI96:BK96" si="55">SUM(AI76:AI95)</f>
+        <f t="shared" ref="AI96:BK96" si="31">SUM(AI76:AI95)</f>
         <v>81675.061105731496</v>
       </c>
       <c r="AJ96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>76450.338323604839</v>
       </c>
       <c r="AK96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>673.23692895964462</v>
       </c>
       <c r="AL96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>594.11225327120485</v>
       </c>
       <c r="AM96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>664.33267686756494</v>
       </c>
       <c r="AN96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>641.73226697138045</v>
       </c>
       <c r="AO96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>658.89083926139347</v>
       </c>
       <c r="AP96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>652.51334330040856</v>
       </c>
       <c r="AQ96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>702.76006088646136</v>
       </c>
       <c r="AR96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>552.39774538240795</v>
       </c>
       <c r="AS96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>640.24845540321144</v>
       </c>
       <c r="AT96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>653.20796195015816</v>
       </c>
       <c r="AU96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>602.03760184656608</v>
       </c>
       <c r="AV96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>591.12994648374035</v>
       </c>
       <c r="AW96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>617.61035521951237</v>
       </c>
       <c r="AX96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>612.12024553549281</v>
       </c>
       <c r="AY96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>650.47074978957971</v>
       </c>
       <c r="AZ96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>540.62273121594205</v>
       </c>
       <c r="BA96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>544.61336510117474</v>
       </c>
       <c r="BB96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>603.34776973311921</v>
       </c>
       <c r="BC96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>593.80648252942888</v>
       </c>
       <c r="BD96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>502.28332266750232</v>
       </c>
       <c r="BE96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>592.63189255225916</v>
       </c>
       <c r="BF96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>548.42429315606671</v>
       </c>
       <c r="BG96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BH96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>493.44290017230924</v>
       </c>
       <c r="BI96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>7626.6000805841431</v>
       </c>
       <c r="BJ96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>6299.3741076723873</v>
       </c>
       <c r="BK96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>13925.974188256529</v>
       </c>
       <c r="BU96" s="17">
@@ -21523,131 +21523,131 @@
         <v>1145173.8999999999</v>
       </c>
       <c r="AI97" s="16">
-        <f t="shared" ref="AI97:BO97" si="56">AVERAGE(AI76:AI95)</f>
+        <f t="shared" ref="AI97:BO97" si="32">AVERAGE(AI76:AI95)</f>
         <v>4083.7530552865746</v>
       </c>
       <c r="AJ97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>3822.5169161802419</v>
       </c>
       <c r="AK97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>33.661846447982228</v>
       </c>
       <c r="AL97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>29.705612663560242</v>
       </c>
       <c r="AM97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>33.216633843378247</v>
       </c>
       <c r="AN97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.086613348569024</v>
       </c>
       <c r="AO97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.944541963069675</v>
       </c>
       <c r="AP97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.625667165020431</v>
       </c>
       <c r="AQ97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>35.138003044323071</v>
       </c>
       <c r="AR97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>27.619887269120397</v>
       </c>
       <c r="AS97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.012422770160569</v>
       </c>
       <c r="AT97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.660398097507908</v>
       </c>
       <c r="AU97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>30.101880092328305</v>
       </c>
       <c r="AV97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>29.556497324187017</v>
       </c>
       <c r="AW97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>30.880517760975618</v>
       </c>
       <c r="AX97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>30.606012276774642</v>
       </c>
       <c r="AY97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>32.523537489478983</v>
       </c>
       <c r="AZ97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>27.031136560797101</v>
       </c>
       <c r="BA97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>27.230668255058738</v>
       </c>
       <c r="BB97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>30.167388486655959</v>
       </c>
       <c r="BC97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>29.690324126471445</v>
       </c>
       <c r="BD97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>25.114166133375114</v>
       </c>
       <c r="BE97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>29.631594627612959</v>
       </c>
       <c r="BF97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>27.421214657803336</v>
       </c>
       <c r="BG97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BH97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>24.672145008615463</v>
       </c>
       <c r="BI97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>381.33000402920715</v>
       </c>
       <c r="BJ97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>314.96870538361935</v>
       </c>
       <c r="BK97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>696.29870941282638</v>
       </c>
       <c r="BM97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>31.777500335767265</v>
       </c>
       <c r="BN97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>26.247392115301615</v>
       </c>
       <c r="BO97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>29.01244622553444</v>
       </c>
       <c r="BU97" s="17">
